--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536462.4261733387</v>
+        <v>-538149.835803367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467813.0863129108</v>
+        <v>228383.3314064065</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>208.0250417001232</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +741,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.61691477342297</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,46 +829,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>193.246840704911</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="X5" t="n">
-        <v>244.5627323611424</v>
+        <v>81.12497829958397</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>100.1139729994695</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>122.3119072793231</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>150.5200544906821</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>228.0767087417152</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.3561638388859</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>9.451566900860099</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>86.23693751337954</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>361.8057008036932</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.3447509112202</v>
       </c>
       <c r="D11" t="n">
         <v>333.7549007608956</v>
       </c>
       <c r="E11" t="n">
-        <v>326.6193790683043</v>
+        <v>361.0022292124744</v>
       </c>
       <c r="F11" t="n">
-        <v>385.947904881924</v>
+        <v>385.9479048819241</v>
       </c>
       <c r="G11" t="n">
-        <v>392.0527103176918</v>
+        <v>260.0637083809214</v>
       </c>
       <c r="H11" t="n">
         <v>294.7676428004614</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.0036512612553</v>
+        <v>192.0036512612554</v>
       </c>
       <c r="U11" t="n">
-        <v>230.2317611410366</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>306.8241176103475</v>
+        <v>306.8241176103476</v>
       </c>
       <c r="W11" t="n">
-        <v>328.3128278576256</v>
+        <v>328.3128278576257</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>348.8029598186817</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.3097977962662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.9038393221499</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.63248775981613</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.687332158425</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5058217867818</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.4929071631439</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.02822480313731</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.9376341085787</v>
       </c>
       <c r="T13" t="n">
-        <v>202.5673250201138</v>
+        <v>202.5673250201139</v>
       </c>
       <c r="U13" t="n">
-        <v>265.3340784088518</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.5948574768036</v>
+        <v>265.5948574768037</v>
       </c>
       <c r="X13" t="n">
-        <v>204.7815145292497</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>361.8057008036932</v>
+        <v>361.8057008036931</v>
       </c>
       <c r="C14" t="n">
-        <v>229.2297492421685</v>
+        <v>344.34475091122</v>
       </c>
       <c r="D14" t="n">
-        <v>333.7549007608956</v>
+        <v>333.7549007608955</v>
       </c>
       <c r="E14" t="n">
-        <v>361.0022292124744</v>
+        <v>361.0022292124743</v>
       </c>
       <c r="F14" t="n">
-        <v>385.947904881924</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>392.0527103176918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7676428004614</v>
+        <v>294.7676428004613</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0332256781398</v>
+        <v>100.0332256781397</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>135.1819438071243</v>
+        <v>135.1819438071242</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.0036512612552</v>
       </c>
       <c r="U14" t="n">
-        <v>230.2317611410366</v>
+        <v>230.2317611410365</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>306.8241176103474</v>
       </c>
       <c r="W14" t="n">
-        <v>328.3128278576256</v>
+        <v>328.3128278576255</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>164.0578446589627</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.3097977962662</v>
+        <v>365.3097977962661</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.02509858453578</v>
+        <v>23.0250985845358</v>
       </c>
       <c r="S15" t="n">
         <v>148.6076458756</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.3186802388404</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>127.6873321584249</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>125.5058217867818</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>124.4929071631438</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.2010389652542</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.5348014316616</v>
+        <v>53.53703795788405</v>
       </c>
       <c r="S16" t="n">
-        <v>167.2920062436284</v>
+        <v>184.9376341085786</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.5673250201138</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.3340784088517</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7815145292497</v>
+        <v>204.7815145292496</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>197.6565124923073</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>297.6226521130708</v>
       </c>
       <c r="C17" t="n">
-        <v>280.1617022205978</v>
+        <v>280.1617022205977</v>
       </c>
       <c r="D17" t="n">
         <v>269.5718520702732</v>
@@ -1859,10 +1859,10 @@
         <v>327.8696616270694</v>
       </c>
       <c r="H17" t="n">
-        <v>230.584594109839</v>
+        <v>230.5845941098389</v>
       </c>
       <c r="I17" t="n">
-        <v>35.85017698751739</v>
+        <v>35.85017698751737</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.99889511650193</v>
+        <v>70.99889511650191</v>
       </c>
       <c r="T17" t="n">
         <v>127.8206025706329</v>
@@ -1910,7 +1910,7 @@
         <v>284.6199111280592</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.1267491056438</v>
+        <v>301.1267491056437</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.02509858453578</v>
+        <v>23.0250985845358</v>
       </c>
       <c r="S18" t="n">
         <v>148.6076458756</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.72079063152751</v>
+        <v>94.72079063152748</v>
       </c>
       <c r="C19" t="n">
-        <v>82.13563154821804</v>
+        <v>82.13563154821802</v>
       </c>
       <c r="D19" t="n">
-        <v>63.50428346780257</v>
+        <v>63.50428346780254</v>
       </c>
       <c r="E19" t="n">
-        <v>61.32277309615938</v>
+        <v>61.32277309615935</v>
       </c>
       <c r="F19" t="n">
-        <v>60.30985847252146</v>
+        <v>60.30985847252143</v>
       </c>
       <c r="G19" t="n">
-        <v>81.83827153076848</v>
+        <v>81.83827153076845</v>
       </c>
       <c r="H19" t="n">
-        <v>67.85593863720879</v>
+        <v>67.85593863720875</v>
       </c>
       <c r="I19" t="n">
-        <v>39.01799027463186</v>
+        <v>39.01799027463183</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.35175274103918</v>
       </c>
       <c r="S19" t="n">
         <v>120.7545854179563</v>
       </c>
       <c r="T19" t="n">
-        <v>138.3842763294915</v>
+        <v>51.58745295444241</v>
       </c>
       <c r="U19" t="n">
-        <v>159.705959084219</v>
+        <v>201.1510297182294</v>
       </c>
       <c r="V19" t="n">
         <v>167.0264537734182</v>
@@ -2065,7 +2065,7 @@
         <v>201.4118087861812</v>
       </c>
       <c r="X19" t="n">
-        <v>140.5984658386274</v>
+        <v>140.5984658386273</v>
       </c>
       <c r="Y19" t="n">
         <v>133.473463801685</v>
@@ -2081,10 +2081,10 @@
         <v>297.6226521130708</v>
       </c>
       <c r="C20" t="n">
-        <v>280.1617022205978</v>
+        <v>280.1617022205977</v>
       </c>
       <c r="D20" t="n">
-        <v>269.5718520702732</v>
+        <v>269.5718520702718</v>
       </c>
       <c r="E20" t="n">
         <v>296.819180521852</v>
@@ -2096,10 +2096,10 @@
         <v>327.8696616270694</v>
       </c>
       <c r="H20" t="n">
-        <v>230.584594109839</v>
+        <v>230.5845941098389</v>
       </c>
       <c r="I20" t="n">
-        <v>35.85017698751739</v>
+        <v>35.85017698751736</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.99889511650193</v>
+        <v>70.9988951165019</v>
       </c>
       <c r="T20" t="n">
         <v>127.8206025706329</v>
@@ -2147,7 +2147,7 @@
         <v>284.6199111280592</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.1267491056438</v>
+        <v>301.1267491056437</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.72079063152751</v>
+        <v>94.72079063152748</v>
       </c>
       <c r="C22" t="n">
-        <v>82.13563154821804</v>
+        <v>82.13563154821802</v>
       </c>
       <c r="D22" t="n">
-        <v>63.50428346780257</v>
+        <v>63.50428346780254</v>
       </c>
       <c r="E22" t="n">
-        <v>61.32277309615938</v>
+        <v>61.32277309615935</v>
       </c>
       <c r="F22" t="n">
-        <v>60.30985847252146</v>
+        <v>60.30985847252143</v>
       </c>
       <c r="G22" t="n">
-        <v>81.83827153076848</v>
+        <v>81.83827153076847</v>
       </c>
       <c r="H22" t="n">
-        <v>67.85593863720879</v>
+        <v>67.85593863720875</v>
       </c>
       <c r="I22" t="n">
-        <v>39.01799027463186</v>
+        <v>39.01799027463183</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.35175274103917</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7545854179563</v>
+        <v>120.7545854179562</v>
       </c>
       <c r="T22" t="n">
         <v>138.3842763294915</v>
@@ -2299,10 +2299,10 @@
         <v>167.0264537734182</v>
       </c>
       <c r="W22" t="n">
-        <v>201.4118087861812</v>
+        <v>114.6149854111318</v>
       </c>
       <c r="X22" t="n">
-        <v>99.153395204617</v>
+        <v>140.5984658386273</v>
       </c>
       <c r="Y22" t="n">
         <v>133.473463801685</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.6226521130708</v>
+        <v>297.6226521130707</v>
       </c>
       <c r="C23" t="n">
-        <v>280.1617022205978</v>
+        <v>280.1617022205977</v>
       </c>
       <c r="D23" t="n">
-        <v>269.5718520702732</v>
+        <v>269.5718520702731</v>
       </c>
       <c r="E23" t="n">
-        <v>296.819180521852</v>
+        <v>296.8191805218519</v>
       </c>
       <c r="F23" t="n">
         <v>321.7648561913016</v>
       </c>
       <c r="G23" t="n">
-        <v>327.8696616270694</v>
+        <v>327.8696616270693</v>
       </c>
       <c r="H23" t="n">
-        <v>230.584594109839</v>
+        <v>230.5845941098389</v>
       </c>
       <c r="I23" t="n">
-        <v>35.85017698751739</v>
+        <v>35.85017698751733</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.99889511650193</v>
+        <v>70.99889511650187</v>
       </c>
       <c r="T23" t="n">
-        <v>127.8206025706329</v>
+        <v>127.8206025706328</v>
       </c>
       <c r="U23" t="n">
         <v>166.0487124504142</v>
@@ -2384,7 +2384,7 @@
         <v>284.6199111280592</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.1267491056438</v>
+        <v>301.1267491056429</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.72079063152751</v>
+        <v>94.72079063152745</v>
       </c>
       <c r="C25" t="n">
-        <v>82.13563154821804</v>
+        <v>82.13563154821799</v>
       </c>
       <c r="D25" t="n">
-        <v>63.50428346780257</v>
+        <v>63.50428346780251</v>
       </c>
       <c r="E25" t="n">
-        <v>61.32277309615938</v>
+        <v>61.32277309615932</v>
       </c>
       <c r="F25" t="n">
-        <v>60.30985847252146</v>
+        <v>60.3098584725214</v>
       </c>
       <c r="G25" t="n">
-        <v>81.83827153076848</v>
+        <v>81.83827153076842</v>
       </c>
       <c r="H25" t="n">
-        <v>67.85593863720879</v>
+        <v>67.85593863720874</v>
       </c>
       <c r="I25" t="n">
-        <v>39.01799027463186</v>
+        <v>39.0179902746318</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.35175274103921</v>
+        <v>45.35175274103915</v>
       </c>
       <c r="S25" t="n">
-        <v>33.95776204290689</v>
+        <v>120.7545854179562</v>
       </c>
       <c r="T25" t="n">
-        <v>138.3842763294915</v>
+        <v>51.58745295444373</v>
       </c>
       <c r="U25" t="n">
         <v>201.1510297182294</v>
@@ -2539,10 +2539,10 @@
         <v>201.4118087861812</v>
       </c>
       <c r="X25" t="n">
-        <v>140.5984658386274</v>
+        <v>140.5984658386273</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.473463801685</v>
+        <v>133.4734638016849</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>297.6226521130708</v>
+        <v>297.6226521130707</v>
       </c>
       <c r="C26" t="n">
-        <v>280.1617022205978</v>
+        <v>280.1617022205977</v>
       </c>
       <c r="D26" t="n">
-        <v>269.5718520702732</v>
+        <v>269.5718520702731</v>
       </c>
       <c r="E26" t="n">
-        <v>296.819180521852</v>
+        <v>296.8191805218519</v>
       </c>
       <c r="F26" t="n">
-        <v>321.7648561913016</v>
+        <v>321.7648561913015</v>
       </c>
       <c r="G26" t="n">
-        <v>327.8696616270694</v>
+        <v>327.8696616270693</v>
       </c>
       <c r="H26" t="n">
-        <v>230.584594109839</v>
+        <v>230.5845941098389</v>
       </c>
       <c r="I26" t="n">
-        <v>35.85017698751739</v>
+        <v>35.85017698751732</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.99889511650193</v>
+        <v>70.99889511650186</v>
       </c>
       <c r="T26" t="n">
-        <v>127.8206025706329</v>
+        <v>127.8206025706328</v>
       </c>
       <c r="U26" t="n">
-        <v>166.0487124504142</v>
+        <v>166.0487124504141</v>
       </c>
       <c r="V26" t="n">
-        <v>242.6410689197251</v>
+        <v>242.641068919725</v>
       </c>
       <c r="W26" t="n">
-        <v>264.1297791670032</v>
+        <v>264.1297791670031</v>
       </c>
       <c r="X26" t="n">
-        <v>284.6199111280592</v>
+        <v>284.6199111280591</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.1267491056438</v>
+        <v>301.1267491056437</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.02509858453578</v>
+        <v>23.0250985845358</v>
       </c>
       <c r="S27" t="n">
         <v>148.6076458756</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.72079063152751</v>
+        <v>94.72079063152742</v>
       </c>
       <c r="C28" t="n">
-        <v>82.13563154821804</v>
+        <v>82.13563154821796</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>63.50428346780248</v>
       </c>
       <c r="E28" t="n">
-        <v>61.32277309615938</v>
+        <v>61.3227730961593</v>
       </c>
       <c r="F28" t="n">
-        <v>60.30985847252146</v>
+        <v>41.36897373468258</v>
       </c>
       <c r="G28" t="n">
-        <v>81.83827153076848</v>
+        <v>81.83827153076841</v>
       </c>
       <c r="H28" t="n">
-        <v>67.85593863720879</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.01799027463186</v>
+        <v>39.01799027463179</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.35175274103921</v>
+        <v>45.35175274103912</v>
       </c>
       <c r="S28" t="n">
-        <v>120.7545854179563</v>
+        <v>120.7545854179562</v>
       </c>
       <c r="T28" t="n">
-        <v>138.3842763294915</v>
+        <v>138.3842763294914</v>
       </c>
       <c r="U28" t="n">
-        <v>177.8584898109827</v>
+        <v>201.1510297182294</v>
       </c>
       <c r="V28" t="n">
-        <v>167.0264537734182</v>
+        <v>167.0264537734181</v>
       </c>
       <c r="W28" t="n">
-        <v>201.4118087861812</v>
+        <v>201.4118087861811</v>
       </c>
       <c r="X28" t="n">
-        <v>140.5984658386274</v>
+        <v>140.5984658386273</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.473463801685</v>
+        <v>133.4734638016849</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>63.50428346780262</v>
       </c>
       <c r="E31" t="n">
-        <v>61.32277309615944</v>
+        <v>13.54393999574044</v>
       </c>
       <c r="F31" t="n">
         <v>60.30985847252151</v>
@@ -2965,10 +2965,10 @@
         <v>81.83827153076854</v>
       </c>
       <c r="H31" t="n">
-        <v>67.85593863720885</v>
+        <v>67.85593863720884</v>
       </c>
       <c r="I31" t="n">
-        <v>39.01799027463191</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>201.4118087861813</v>
       </c>
       <c r="X31" t="n">
-        <v>53.80164246357679</v>
+        <v>140.5984658386274</v>
       </c>
       <c r="Y31" t="n">
         <v>133.4734638016851</v>
@@ -3035,7 +3035,7 @@
         <v>265.9311678912586</v>
       </c>
       <c r="E32" t="n">
-        <v>293.1784963428374</v>
+        <v>347.7887590280546</v>
       </c>
       <c r="F32" t="n">
         <v>318.1241720122871</v>
@@ -3047,7 +3047,7 @@
         <v>226.9439099308244</v>
       </c>
       <c r="I32" t="n">
-        <v>32.20949280850284</v>
+        <v>32.20949280850282</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.3582109374874</v>
+        <v>67.35821093748737</v>
       </c>
       <c r="T32" t="n">
         <v>124.1799183916183</v>
       </c>
       <c r="U32" t="n">
-        <v>217.0182909566169</v>
+        <v>162.4080282713997</v>
       </c>
       <c r="V32" t="n">
         <v>239.0003847407106</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.08010645251296</v>
+        <v>91.08010645251294</v>
       </c>
       <c r="C34" t="n">
-        <v>78.4949473692035</v>
+        <v>78.49494736920347</v>
       </c>
       <c r="D34" t="n">
-        <v>59.86359928878802</v>
+        <v>59.863599288788</v>
       </c>
       <c r="E34" t="n">
-        <v>57.68208891714484</v>
+        <v>57.68208891714481</v>
       </c>
       <c r="F34" t="n">
-        <v>56.66917429350691</v>
+        <v>56.66917429350688</v>
       </c>
       <c r="G34" t="n">
-        <v>78.19758735175394</v>
+        <v>78.19758735175391</v>
       </c>
       <c r="H34" t="n">
-        <v>64.21525445819425</v>
+        <v>64.21525445819422</v>
       </c>
       <c r="I34" t="n">
-        <v>35.37730609561731</v>
+        <v>35.37730609561729</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71106856202466</v>
+        <v>41.71106856202464</v>
       </c>
       <c r="S34" t="n">
-        <v>117.1139012389418</v>
+        <v>117.1139012389417</v>
       </c>
       <c r="T34" t="n">
         <v>134.7435921504769</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.9819679340563</v>
+        <v>293.9819679340562</v>
       </c>
       <c r="C35" t="n">
-        <v>331.1312807267998</v>
+        <v>276.5210180415832</v>
       </c>
       <c r="D35" t="n">
-        <v>265.9311678912587</v>
+        <v>265.9311678912586</v>
       </c>
       <c r="E35" t="n">
-        <v>293.1784963428375</v>
+        <v>293.1784963428374</v>
       </c>
       <c r="F35" t="n">
         <v>318.1241720122871</v>
       </c>
       <c r="G35" t="n">
-        <v>324.2289774480549</v>
+        <v>324.2289774480548</v>
       </c>
       <c r="H35" t="n">
-        <v>226.9439099308245</v>
+        <v>226.9439099308244</v>
       </c>
       <c r="I35" t="n">
-        <v>32.20949280850289</v>
+        <v>32.20949280850282</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.35821093748743</v>
+        <v>67.35821093748737</v>
       </c>
       <c r="T35" t="n">
-        <v>124.1799183916184</v>
+        <v>124.1799183916183</v>
       </c>
       <c r="U35" t="n">
         <v>162.4080282713997</v>
@@ -3329,10 +3329,10 @@
         <v>260.4890949879887</v>
       </c>
       <c r="X35" t="n">
-        <v>280.9792269490447</v>
+        <v>335.5894896342618</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.4860649266293</v>
+        <v>297.4860649266292</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.08010645251301</v>
+        <v>91.08010645251294</v>
       </c>
       <c r="C37" t="n">
-        <v>78.49494736920354</v>
+        <v>78.49494736920347</v>
       </c>
       <c r="D37" t="n">
-        <v>59.86359928878807</v>
+        <v>59.863599288788</v>
       </c>
       <c r="E37" t="n">
-        <v>57.68208891714488</v>
+        <v>57.68208891714481</v>
       </c>
       <c r="F37" t="n">
-        <v>56.66917429350696</v>
+        <v>56.66917429350688</v>
       </c>
       <c r="G37" t="n">
-        <v>78.19758735175398</v>
+        <v>78.19758735175391</v>
       </c>
       <c r="H37" t="n">
-        <v>64.21525445819429</v>
+        <v>64.21525445819422</v>
       </c>
       <c r="I37" t="n">
-        <v>35.37730609561736</v>
+        <v>35.37730609561729</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71106856202471</v>
+        <v>41.71106856202464</v>
       </c>
       <c r="S37" t="n">
-        <v>117.1139012389418</v>
+        <v>117.1139012389417</v>
       </c>
       <c r="T37" t="n">
-        <v>134.743592150477</v>
+        <v>134.7435921504769</v>
       </c>
       <c r="U37" t="n">
         <v>197.5103455392149</v>
@@ -3487,10 +3487,10 @@
         <v>197.7711246071667</v>
       </c>
       <c r="X37" t="n">
-        <v>136.9577816596129</v>
+        <v>136.9577816596128</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.8327796226705</v>
+        <v>129.8327796226704</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293.9819679340562</v>
+        <v>293.9819679340563</v>
       </c>
       <c r="C38" t="n">
-        <v>276.5210180415832</v>
+        <v>276.5210180415833</v>
       </c>
       <c r="D38" t="n">
-        <v>265.9311678912586</v>
+        <v>265.9311678912587</v>
       </c>
       <c r="E38" t="n">
-        <v>293.1784963428374</v>
+        <v>293.1784963428375</v>
       </c>
       <c r="F38" t="n">
-        <v>318.1241720122871</v>
+        <v>372.7344346975045</v>
       </c>
       <c r="G38" t="n">
-        <v>324.2289774480548</v>
+        <v>324.2289774480549</v>
       </c>
       <c r="H38" t="n">
-        <v>281.5541726160416</v>
+        <v>226.9439099308245</v>
       </c>
       <c r="I38" t="n">
-        <v>32.20949280850282</v>
+        <v>32.20949280850284</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.35821093748737</v>
+        <v>67.3582109374874</v>
       </c>
       <c r="T38" t="n">
-        <v>124.1799183916183</v>
+        <v>124.1799183916184</v>
       </c>
       <c r="U38" t="n">
         <v>162.4080282713997</v>
@@ -3569,7 +3569,7 @@
         <v>280.9792269490447</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.4860649266292</v>
+        <v>297.4860649266293</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>100.2372608710703</v>
       </c>
       <c r="I39" t="n">
-        <v>46.62381749328831</v>
+        <v>46.6238174932883</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.02509858453578</v>
+        <v>23.02509858453577</v>
       </c>
       <c r="S39" t="n">
         <v>148.6076458756</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.08010645251294</v>
+        <v>91.08010645251299</v>
       </c>
       <c r="C40" t="n">
-        <v>78.49494736920347</v>
+        <v>78.49494736920353</v>
       </c>
       <c r="D40" t="n">
-        <v>59.863599288788</v>
+        <v>59.86359928878805</v>
       </c>
       <c r="E40" t="n">
-        <v>57.68208891714481</v>
+        <v>57.68208891714487</v>
       </c>
       <c r="F40" t="n">
-        <v>56.66917429350688</v>
+        <v>56.66917429350694</v>
       </c>
       <c r="G40" t="n">
-        <v>78.19758735175391</v>
+        <v>78.19758735175397</v>
       </c>
       <c r="H40" t="n">
-        <v>64.21525445819422</v>
+        <v>64.21525445819427</v>
       </c>
       <c r="I40" t="n">
-        <v>35.37730609561729</v>
+        <v>35.37730609561734</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71106856202464</v>
+        <v>41.71106856202468</v>
       </c>
       <c r="S40" t="n">
-        <v>117.1139012389417</v>
+        <v>117.1139012389418</v>
       </c>
       <c r="T40" t="n">
-        <v>134.7435921504769</v>
+        <v>134.743592150477</v>
       </c>
       <c r="U40" t="n">
         <v>197.5103455392149</v>
@@ -3724,10 +3724,10 @@
         <v>197.7711246071667</v>
       </c>
       <c r="X40" t="n">
-        <v>136.9577816596128</v>
+        <v>136.9577816596129</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.8327796226704</v>
+        <v>129.8327796226705</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>293.9819679340562</v>
+        <v>348.5922306192739</v>
       </c>
       <c r="C41" t="n">
-        <v>331.1312807268008</v>
+        <v>276.5210180415832</v>
       </c>
       <c r="D41" t="n">
         <v>265.9311678912586</v>
@@ -3758,7 +3758,7 @@
         <v>226.9439099308244</v>
       </c>
       <c r="I41" t="n">
-        <v>32.20949280850282</v>
+        <v>32.20949280850284</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.35821093748737</v>
+        <v>67.3582109374874</v>
       </c>
       <c r="T41" t="n">
         <v>124.1799183916183</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.08010645251294</v>
+        <v>91.08010645251296</v>
       </c>
       <c r="C43" t="n">
-        <v>78.49494736920347</v>
+        <v>78.4949473692035</v>
       </c>
       <c r="D43" t="n">
-        <v>59.863599288788</v>
+        <v>59.86359928878802</v>
       </c>
       <c r="E43" t="n">
-        <v>57.68208891714481</v>
+        <v>57.68208891714484</v>
       </c>
       <c r="F43" t="n">
-        <v>56.66917429350688</v>
+        <v>56.66917429350691</v>
       </c>
       <c r="G43" t="n">
-        <v>78.19758735175391</v>
+        <v>78.19758735175394</v>
       </c>
       <c r="H43" t="n">
-        <v>64.21525445819422</v>
+        <v>64.21525445819425</v>
       </c>
       <c r="I43" t="n">
-        <v>35.37730609561729</v>
+        <v>35.37730609561731</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71106856202464</v>
+        <v>41.71106856202466</v>
       </c>
       <c r="S43" t="n">
-        <v>117.1139012389417</v>
+        <v>117.1139012389418</v>
       </c>
       <c r="T43" t="n">
         <v>134.7435921504769</v>
@@ -3977,7 +3977,7 @@
         <v>293.9819679340562</v>
       </c>
       <c r="C44" t="n">
-        <v>276.5210180415832</v>
+        <v>276.5210180415833</v>
       </c>
       <c r="D44" t="n">
         <v>265.9311678912586</v>
@@ -3995,7 +3995,7 @@
         <v>226.9439099308244</v>
       </c>
       <c r="I44" t="n">
-        <v>32.20949280850282</v>
+        <v>32.20949280850286</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.35821093748737</v>
+        <v>67.3582109374874</v>
       </c>
       <c r="T44" t="n">
-        <v>124.1799183916183</v>
+        <v>124.1799183916184</v>
       </c>
       <c r="U44" t="n">
         <v>162.4080282713997</v>
@@ -4040,10 +4040,10 @@
         <v>260.4890949879887</v>
       </c>
       <c r="X44" t="n">
-        <v>335.5894896342622</v>
+        <v>280.9792269490447</v>
       </c>
       <c r="Y44" t="n">
-        <v>297.4860649266292</v>
+        <v>352.0963276118468</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.08010645251294</v>
+        <v>91.08010645251298</v>
       </c>
       <c r="C46" t="n">
-        <v>78.49494736920347</v>
+        <v>78.49494736920352</v>
       </c>
       <c r="D46" t="n">
-        <v>59.863599288788</v>
+        <v>59.86359928878804</v>
       </c>
       <c r="E46" t="n">
-        <v>57.68208891714481</v>
+        <v>57.68208891714485</v>
       </c>
       <c r="F46" t="n">
-        <v>56.66917429350688</v>
+        <v>56.66917429350693</v>
       </c>
       <c r="G46" t="n">
-        <v>78.19758735175391</v>
+        <v>78.19758735175395</v>
       </c>
       <c r="H46" t="n">
-        <v>64.21525445819422</v>
+        <v>64.21525445819427</v>
       </c>
       <c r="I46" t="n">
-        <v>35.37730609561729</v>
+        <v>35.37730609561733</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71106856202464</v>
+        <v>41.71106856202468</v>
       </c>
       <c r="S46" t="n">
-        <v>117.1139012389417</v>
+        <v>117.1139012389418</v>
       </c>
       <c r="T46" t="n">
         <v>134.7435921504769</v>
@@ -4201,7 +4201,7 @@
         <v>136.9577816596128</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.8327796226704</v>
+        <v>129.8327796226705</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.9572726784918</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C3" t="n">
-        <v>315.5042433973647</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="D3" t="n">
-        <v>166.5698337361135</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>953.3329991738453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>953.3329991738453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>725.1093809102344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>489.9572726784918</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>489.9572726784918</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X3" t="n">
-        <v>489.9572726784918</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y3" t="n">
-        <v>489.9572726784918</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4516,22 +4516,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.1517404714108</v>
+        <v>273.5435823291478</v>
       </c>
       <c r="C5" t="n">
-        <v>41.95291147655119</v>
+        <v>273.5435823291478</v>
       </c>
       <c r="D5" t="n">
-        <v>41.95291147655119</v>
+        <v>273.5435823291478</v>
       </c>
       <c r="E5" t="n">
-        <v>41.95291147655119</v>
+        <v>273.5435823291478</v>
       </c>
       <c r="F5" t="n">
-        <v>35.00741072734773</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
         <v>19.56501858889139</v>
@@ -4589,28 +4589,28 @@
         <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>978.2509294445696</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>978.2509294445696</v>
+        <v>602.521067845033</v>
       </c>
       <c r="U5" t="n">
-        <v>978.2509294445696</v>
+        <v>602.521067845033</v>
       </c>
       <c r="V5" t="n">
-        <v>978.2509294445696</v>
+        <v>602.521067845033</v>
       </c>
       <c r="W5" t="n">
-        <v>731.2178664535166</v>
+        <v>355.4880048539801</v>
       </c>
       <c r="X5" t="n">
-        <v>484.1848034624637</v>
+        <v>273.5435823291478</v>
       </c>
       <c r="Y5" t="n">
-        <v>237.1517404714108</v>
+        <v>273.5435823291478</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546.2693100328491</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="C6" t="n">
-        <v>371.8162807517222</v>
+        <v>120.6902438408808</v>
       </c>
       <c r="D6" t="n">
-        <v>222.8818710904709</v>
+        <v>120.6902438408808</v>
       </c>
       <c r="E6" t="n">
-        <v>222.8818710904709</v>
+        <v>120.6902438408808</v>
       </c>
       <c r="F6" t="n">
-        <v>222.8818710904709</v>
+        <v>120.6902438408808</v>
       </c>
       <c r="G6" t="n">
-        <v>222.8818710904709</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
         <v>19.56501858889139</v>
@@ -4647,49 +4647,49 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.9225786467288</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409625</v>
+        <v>374.885684515078</v>
       </c>
       <c r="M6" t="n">
-        <v>494.0167193695077</v>
+        <v>423.6235300581739</v>
       </c>
       <c r="N6" t="n">
-        <v>736.1338244070387</v>
+        <v>665.7406350957049</v>
       </c>
       <c r="O6" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="Q6" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S6" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T6" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U6" t="n">
-        <v>754.0296087978031</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="V6" t="n">
-        <v>754.0296087978031</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="W6" t="n">
-        <v>754.0296087978031</v>
+        <v>502.9947733275407</v>
       </c>
       <c r="X6" t="n">
-        <v>754.0296087978031</v>
+        <v>295.1432731220078</v>
       </c>
       <c r="Y6" t="n">
-        <v>546.2693100328491</v>
+        <v>295.1432731220078</v>
       </c>
     </row>
     <row r="7">
@@ -4705,19 +4705,19 @@
         <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
         <v>19.56501858889139</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>874.2455409289015</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="C8" t="n">
-        <v>595.2995674921788</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="D8" t="n">
-        <v>316.3535940554561</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="E8" t="n">
-        <v>316.3535940554561</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="F8" t="n">
-        <v>37.40762061873336</v>
+        <v>189.4480797002304</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09252109618844</v>
+        <v>174.1329801776855</v>
       </c>
       <c r="H8" t="n">
         <v>22.09252109618844</v>
@@ -4805,13 +4805,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N8" t="n">
         <v>817.0829279823542</v>
@@ -4826,28 +4826,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T8" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U8" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V8" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="W8" t="n">
-        <v>1104.626054809422</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="X8" t="n">
-        <v>1104.626054809422</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="Y8" t="n">
-        <v>874.2455409289015</v>
+        <v>196.3935804494339</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669.2332673183206</v>
+        <v>430.1957585320138</v>
       </c>
       <c r="C9" t="n">
-        <v>669.2332673183206</v>
+        <v>430.1957585320138</v>
       </c>
       <c r="D9" t="n">
-        <v>520.2988576570693</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="E9" t="n">
-        <v>361.0614026516138</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F9" t="n">
-        <v>361.0614026516138</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G9" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H9" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K9" t="n">
-        <v>22.09252109618844</v>
+        <v>153.7567014710228</v>
       </c>
       <c r="L9" t="n">
-        <v>268.2479876888894</v>
+        <v>239.6881850814666</v>
       </c>
       <c r="M9" t="n">
-        <v>541.6429362542212</v>
+        <v>513.0831336467985</v>
       </c>
       <c r="N9" t="n">
-        <v>815.0378848195531</v>
+        <v>786.4780822121304</v>
       </c>
       <c r="O9" t="n">
-        <v>852.5880186827419</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="P9" t="n">
         <v>1035.231496296093</v>
@@ -4905,28 +4905,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S9" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T9" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U9" t="n">
-        <v>876.9935660832746</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="V9" t="n">
-        <v>876.9935660832746</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="W9" t="n">
-        <v>876.9935660832746</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="X9" t="n">
-        <v>876.9935660832746</v>
+        <v>598.4110955520819</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.2332673183206</v>
+        <v>598.4110955520819</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="C10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="D10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F10" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
         <v>22.09252109618844</v>
@@ -4990,22 +4990,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="U10" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="V10" t="n">
-        <v>198.9927170031359</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="W10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="X10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="Y10" t="n">
-        <v>111.8846993128535</v>
+        <v>168.9824685940988</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1823.162538609237</v>
+        <v>2072.393446809863</v>
       </c>
       <c r="C11" t="n">
-        <v>1823.162538609237</v>
+        <v>1724.570466091459</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.036376224494</v>
+        <v>1387.444303706716</v>
       </c>
       <c r="E11" t="n">
-        <v>1156.117811509035</v>
+        <v>1022.79558733048</v>
       </c>
       <c r="F11" t="n">
-        <v>766.2714429414351</v>
+        <v>632.9492187628794</v>
       </c>
       <c r="G11" t="n">
         <v>370.2586042366958</v>
       </c>
       <c r="H11" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="I11" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J11" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K11" t="n">
-        <v>651.1943712251868</v>
+        <v>651.194371225187</v>
       </c>
       <c r="L11" t="n">
         <v>1194.017190257181</v>
@@ -5054,37 +5054,37 @@
         <v>2430.630218974722</v>
       </c>
       <c r="O11" t="n">
-        <v>2967.124778524352</v>
+        <v>2967.124778524351</v>
       </c>
       <c r="P11" t="n">
-        <v>3387.336089952114</v>
+        <v>3387.336089952113</v>
       </c>
       <c r="Q11" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R11" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S11" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="T11" t="n">
         <v>3431.73244286072</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.175108374825</v>
+        <v>3431.73244286072</v>
       </c>
       <c r="V11" t="n">
-        <v>2889.251757253262</v>
+        <v>3121.809091739157</v>
       </c>
       <c r="W11" t="n">
-        <v>2557.622638205156</v>
+        <v>2790.17997269105</v>
       </c>
       <c r="X11" t="n">
-        <v>2557.622638205156</v>
+        <v>2437.853750651978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2188.622842451352</v>
+        <v>2437.853750651978</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I12" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J12" t="n">
-        <v>187.9725409423084</v>
+        <v>178.1467466127648</v>
       </c>
       <c r="K12" t="n">
-        <v>511.9312571287766</v>
+        <v>502.1054627992331</v>
       </c>
       <c r="L12" t="n">
-        <v>641.806184466577</v>
+        <v>999.112331987458</v>
       </c>
       <c r="M12" t="n">
-        <v>1273.768980149985</v>
+        <v>1631.075127670866</v>
       </c>
       <c r="N12" t="n">
-        <v>1938.164963958602</v>
+        <v>1631.075127670866</v>
       </c>
       <c r="O12" t="n">
-        <v>2479.54181060116</v>
+        <v>2172.451974313424</v>
       </c>
       <c r="P12" t="n">
-        <v>2659.346113205901</v>
+        <v>2589.951554692571</v>
       </c>
       <c r="Q12" t="n">
         <v>2659.346113205901</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.26349813503384</v>
+        <v>532.8309710155105</v>
       </c>
       <c r="C13" t="n">
-        <v>72.51351049885594</v>
+        <v>532.8309710155105</v>
       </c>
       <c r="D13" t="n">
-        <v>72.51351049885594</v>
+        <v>403.8538678251822</v>
       </c>
       <c r="E13" t="n">
-        <v>72.51351049885594</v>
+        <v>277.0803104647965</v>
       </c>
       <c r="F13" t="n">
-        <v>72.51351049885594</v>
+        <v>151.3298991888935</v>
       </c>
       <c r="G13" t="n">
-        <v>72.51351049885594</v>
+        <v>151.3298991888935</v>
       </c>
       <c r="H13" t="n">
-        <v>72.51351049885594</v>
+        <v>151.3298991888935</v>
       </c>
       <c r="I13" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J13" t="n">
-        <v>73.70577041623203</v>
+        <v>73.70577041623197</v>
       </c>
       <c r="K13" t="n">
-        <v>192.1732652125984</v>
+        <v>192.1732652125982</v>
       </c>
       <c r="L13" t="n">
-        <v>393.5031588313057</v>
+        <v>393.5031588313055</v>
       </c>
       <c r="M13" t="n">
-        <v>615.0401533710433</v>
+        <v>615.0401533710428</v>
       </c>
       <c r="N13" t="n">
-        <v>837.2367579308301</v>
+        <v>837.2367579308296</v>
       </c>
       <c r="O13" t="n">
         <v>1028.036629593331</v>
       </c>
       <c r="P13" t="n">
-        <v>1170.768495165221</v>
+        <v>1170.76849516522</v>
       </c>
       <c r="Q13" t="n">
         <v>1192.527755465507</v>
@@ -5224,25 +5224,25 @@
         <v>1192.527755465507</v>
       </c>
       <c r="S13" t="n">
-        <v>1192.527755465507</v>
+        <v>1005.722064446741</v>
       </c>
       <c r="T13" t="n">
-        <v>987.9142958492307</v>
+        <v>801.1086048304637</v>
       </c>
       <c r="U13" t="n">
-        <v>719.900075234229</v>
+        <v>801.1086048304637</v>
       </c>
       <c r="V13" t="n">
-        <v>719.900075234229</v>
+        <v>801.1086048304637</v>
       </c>
       <c r="W13" t="n">
-        <v>451.6224414192759</v>
+        <v>532.8309710155105</v>
       </c>
       <c r="X13" t="n">
-        <v>244.7724267432661</v>
+        <v>532.8309710155105</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.7724267432661</v>
+        <v>532.8309710155105</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2190.481553825882</v>
+        <v>1520.900126017231</v>
       </c>
       <c r="C14" t="n">
-        <v>1958.936352571166</v>
+        <v>1173.077145298827</v>
       </c>
       <c r="D14" t="n">
-        <v>1621.810190186423</v>
+        <v>835.9509829140835</v>
       </c>
       <c r="E14" t="n">
-        <v>1257.161473810186</v>
+        <v>471.3022665378469</v>
       </c>
       <c r="F14" t="n">
-        <v>867.3151052425862</v>
+        <v>471.3022665378469</v>
       </c>
       <c r="G14" t="n">
-        <v>471.302266537847</v>
+        <v>471.3022665378469</v>
       </c>
       <c r="H14" t="n">
         <v>173.5571728000072</v>
       </c>
       <c r="I14" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J14" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K14" t="n">
-        <v>651.194371225187</v>
+        <v>651.1943712251871</v>
       </c>
       <c r="L14" t="n">
         <v>1194.017190257181</v>
@@ -5288,7 +5288,7 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N14" t="n">
-        <v>2430.630218974723</v>
+        <v>2430.630218974722</v>
       </c>
       <c r="O14" t="n">
         <v>2967.124778524352</v>
@@ -5297,31 +5297,31 @@
         <v>3387.336089952114</v>
       </c>
       <c r="Q14" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R14" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S14" t="n">
         <v>3489.128106955802</v>
       </c>
       <c r="T14" t="n">
-        <v>3489.128106955802</v>
+        <v>3295.185024873726</v>
       </c>
       <c r="U14" t="n">
-        <v>3256.570772469907</v>
+        <v>3062.627690387832</v>
       </c>
       <c r="V14" t="n">
-        <v>3256.570772469907</v>
+        <v>2752.704339266269</v>
       </c>
       <c r="W14" t="n">
-        <v>2924.9416534218</v>
+        <v>2421.075220218162</v>
       </c>
       <c r="X14" t="n">
-        <v>2924.9416534218</v>
+        <v>2255.360225613149</v>
       </c>
       <c r="Y14" t="n">
-        <v>2555.941857667996</v>
+        <v>1886.360429859345</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I15" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J15" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="K15" t="n">
         <v>197.8710705566933</v>
       </c>
       <c r="L15" t="n">
-        <v>694.8779397449182</v>
+        <v>627.3397807374371</v>
       </c>
       <c r="M15" t="n">
-        <v>1017.660573625059</v>
+        <v>1259.302576420845</v>
       </c>
       <c r="N15" t="n">
-        <v>1682.056557433676</v>
+        <v>1923.698560229462</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.433404076234</v>
+        <v>2172.451974313424</v>
       </c>
       <c r="P15" t="n">
-        <v>2640.932984455381</v>
+        <v>2589.951554692571</v>
       </c>
       <c r="Q15" t="n">
         <v>2659.346113205901</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.054702733649</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="C16" t="n">
-        <v>558.2580560277496</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="D16" t="n">
-        <v>429.2809528374214</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="E16" t="n">
-        <v>302.5073954770358</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="F16" t="n">
-        <v>176.7569842011329</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7569842011329</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="H16" t="n">
-        <v>176.7569842011329</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="I16" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J16" t="n">
-        <v>73.70577041623203</v>
+        <v>73.70577041623213</v>
       </c>
       <c r="K16" t="n">
-        <v>192.1732652125984</v>
+        <v>192.1732652125985</v>
       </c>
       <c r="L16" t="n">
-        <v>393.5031588313057</v>
+        <v>393.5031588313058</v>
       </c>
       <c r="M16" t="n">
-        <v>615.0401533710433</v>
+        <v>615.0401533710435</v>
       </c>
       <c r="N16" t="n">
-        <v>837.2367579308301</v>
+        <v>837.2367579308304</v>
       </c>
       <c r="O16" t="n">
-        <v>1028.036629593331</v>
+        <v>1028.036629593332</v>
       </c>
       <c r="P16" t="n">
         <v>1170.768495165221</v>
       </c>
       <c r="Q16" t="n">
-        <v>1192.527755465507</v>
+        <v>1192.527755465508</v>
       </c>
       <c r="R16" t="n">
-        <v>1081.886541898172</v>
+        <v>1138.449939346433</v>
       </c>
       <c r="S16" t="n">
-        <v>912.9047174096588</v>
+        <v>951.6442483276666</v>
       </c>
       <c r="T16" t="n">
-        <v>912.9047174096588</v>
+        <v>747.03078871139</v>
       </c>
       <c r="U16" t="n">
-        <v>912.9047174096588</v>
+        <v>479.0165680963881</v>
       </c>
       <c r="V16" t="n">
-        <v>912.9047174096588</v>
+        <v>479.0165680963881</v>
       </c>
       <c r="W16" t="n">
-        <v>912.9047174096588</v>
+        <v>479.0165680963881</v>
       </c>
       <c r="X16" t="n">
-        <v>706.054702733649</v>
+        <v>272.1665534203784</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.054702733649</v>
+        <v>72.51351049885592</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1852.93979709325</v>
       </c>
       <c r="C17" t="n">
-        <v>1569.948178688605</v>
+        <v>1569.948178688606</v>
       </c>
       <c r="D17" t="n">
-        <v>1297.653378617622</v>
+        <v>1297.653378617623</v>
       </c>
       <c r="E17" t="n">
-        <v>997.8360245551457</v>
+        <v>997.8360245551462</v>
       </c>
       <c r="F17" t="n">
-        <v>672.8210183013057</v>
+        <v>672.8210183013061</v>
       </c>
       <c r="G17" t="n">
-        <v>341.6395419103265</v>
+        <v>341.639541910327</v>
       </c>
       <c r="H17" t="n">
-        <v>108.7258104862467</v>
+        <v>108.7258104862472</v>
       </c>
       <c r="I17" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J17" t="n">
-        <v>255.780242582905</v>
+        <v>255.7802425829049</v>
       </c>
       <c r="K17" t="n">
-        <v>651.194371225187</v>
+        <v>651.1943712251867</v>
       </c>
       <c r="L17" t="n">
         <v>1194.017190257181</v>
@@ -5525,7 +5525,7 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N17" t="n">
-        <v>2430.630218974723</v>
+        <v>2430.630218974722</v>
       </c>
       <c r="O17" t="n">
         <v>2967.124778524352</v>
@@ -5534,10 +5534,10 @@
         <v>3387.336089952114</v>
       </c>
       <c r="Q17" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R17" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S17" t="n">
         <v>3553.959469269562</v>
@@ -5549,16 +5549,16 @@
         <v>3257.121777329111</v>
       </c>
       <c r="V17" t="n">
-        <v>3012.029788521307</v>
+        <v>3012.029788521308</v>
       </c>
       <c r="W17" t="n">
         <v>2745.232031786961</v>
       </c>
       <c r="X17" t="n">
-        <v>2457.737172061648</v>
+        <v>2457.737172061649</v>
       </c>
       <c r="Y17" t="n">
-        <v>2153.568738621604</v>
+        <v>2153.568738621605</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I18" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J18" t="n">
-        <v>72.51351049885594</v>
+        <v>187.9725409423083</v>
       </c>
       <c r="K18" t="n">
-        <v>197.8710705566933</v>
+        <v>313.3301010001458</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5965912541592</v>
+        <v>543.293206868495</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.559386937567</v>
+        <v>863.6285263981968</v>
       </c>
       <c r="N18" t="n">
-        <v>1474.080042575185</v>
+        <v>1528.024510206814</v>
       </c>
       <c r="O18" t="n">
         <v>2015.456889217744</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.1041640617959</v>
+        <v>533.1041640617958</v>
       </c>
       <c r="C19" t="n">
-        <v>450.1388796696565</v>
+        <v>450.1388796696564</v>
       </c>
       <c r="D19" t="n">
         <v>385.9931387930882</v>
@@ -5662,25 +5662,25 @@
         <v>263.1318947843197</v>
       </c>
       <c r="G19" t="n">
-        <v>180.4669740461697</v>
+        <v>180.4669740461698</v>
       </c>
       <c r="H19" t="n">
-        <v>111.925621887373</v>
+        <v>111.9256218873729</v>
       </c>
       <c r="I19" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J19" t="n">
         <v>137.2469886199482</v>
       </c>
       <c r="K19" t="n">
-        <v>319.2557016200308</v>
+        <v>319.2557016200307</v>
       </c>
       <c r="L19" t="n">
-        <v>584.1268134424542</v>
+        <v>584.1268134424541</v>
       </c>
       <c r="M19" t="n">
-        <v>869.205026185908</v>
+        <v>869.2050261859077</v>
       </c>
       <c r="N19" t="n">
         <v>1154.942848949411</v>
@@ -5695,13 +5695,13 @@
         <v>1700.857501095237</v>
       </c>
       <c r="R19" t="n">
-        <v>1700.857501095237</v>
+        <v>1655.047649841662</v>
       </c>
       <c r="S19" t="n">
-        <v>1578.883172390231</v>
+        <v>1533.073321136656</v>
       </c>
       <c r="T19" t="n">
-        <v>1439.101075087714</v>
+        <v>1480.964782798835</v>
       </c>
       <c r="U19" t="n">
         <v>1277.781924497593</v>
@@ -5710,13 +5710,13 @@
         <v>1109.068334827474</v>
       </c>
       <c r="W19" t="n">
-        <v>905.6220633262808</v>
+        <v>905.6220633262806</v>
       </c>
       <c r="X19" t="n">
-        <v>763.6034109640309</v>
+        <v>763.6034109640306</v>
       </c>
       <c r="Y19" t="n">
-        <v>628.7817303562681</v>
+        <v>628.781730356268</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1569.948178688605</v>
       </c>
       <c r="D20" t="n">
-        <v>1297.653378617622</v>
+        <v>1297.653378617623</v>
       </c>
       <c r="E20" t="n">
-        <v>997.8360245551457</v>
+        <v>997.8360245551462</v>
       </c>
       <c r="F20" t="n">
-        <v>672.8210183013057</v>
+        <v>672.8210183013061</v>
       </c>
       <c r="G20" t="n">
-        <v>341.6395419103265</v>
+        <v>341.639541910327</v>
       </c>
       <c r="H20" t="n">
-        <v>108.7258104862467</v>
+        <v>108.7258104862472</v>
       </c>
       <c r="I20" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J20" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K20" t="n">
-        <v>651.1943712251873</v>
+        <v>651.194371225187</v>
       </c>
       <c r="L20" t="n">
         <v>1194.017190257181</v>
@@ -5762,19 +5762,19 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N20" t="n">
-        <v>2430.630218974723</v>
+        <v>2430.630218974722</v>
       </c>
       <c r="O20" t="n">
-        <v>2967.124778524352</v>
+        <v>2967.124778524351</v>
       </c>
       <c r="P20" t="n">
-        <v>3387.336089952114</v>
+        <v>3387.336089952113</v>
       </c>
       <c r="Q20" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R20" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S20" t="n">
         <v>3553.959469269562</v>
@@ -5826,22 +5826,22 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I21" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J21" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="K21" t="n">
-        <v>396.4722266853241</v>
+        <v>284.9653026072372</v>
       </c>
       <c r="L21" t="n">
-        <v>893.4790958735491</v>
+        <v>781.9721717954621</v>
       </c>
       <c r="M21" t="n">
-        <v>1284.233009366686</v>
+        <v>1102.307491325164</v>
       </c>
       <c r="N21" t="n">
-        <v>1474.080042575185</v>
+        <v>1766.703475133781</v>
       </c>
       <c r="O21" t="n">
         <v>2015.456889217744</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.1041640617959</v>
+        <v>533.1041640617962</v>
       </c>
       <c r="C22" t="n">
-        <v>450.1388796696565</v>
+        <v>450.1388796696567</v>
       </c>
       <c r="D22" t="n">
-        <v>385.9931387930882</v>
+        <v>385.9931387930885</v>
       </c>
       <c r="E22" t="n">
-        <v>324.0509437464626</v>
+        <v>324.0509437464629</v>
       </c>
       <c r="F22" t="n">
-        <v>263.1318947843197</v>
+        <v>263.13189478432</v>
       </c>
       <c r="G22" t="n">
-        <v>180.4669740461697</v>
+        <v>180.4669740461696</v>
       </c>
       <c r="H22" t="n">
-        <v>111.925621887373</v>
+        <v>111.9256218873729</v>
       </c>
       <c r="I22" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J22" t="n">
         <v>137.2469886199482</v>
       </c>
       <c r="K22" t="n">
-        <v>319.2557016200308</v>
+        <v>319.2557016200307</v>
       </c>
       <c r="L22" t="n">
         <v>584.1268134424542</v>
@@ -5932,28 +5932,28 @@
         <v>1700.857501095237</v>
       </c>
       <c r="R22" t="n">
-        <v>1700.857501095237</v>
+        <v>1655.047649841662</v>
       </c>
       <c r="S22" t="n">
-        <v>1578.88317239023</v>
+        <v>1533.073321136656</v>
       </c>
       <c r="T22" t="n">
-        <v>1439.101075087714</v>
+        <v>1393.291223834139</v>
       </c>
       <c r="U22" t="n">
-        <v>1235.918216786472</v>
+        <v>1190.108365532897</v>
       </c>
       <c r="V22" t="n">
-        <v>1067.204627116353</v>
+        <v>1021.394775862778</v>
       </c>
       <c r="W22" t="n">
-        <v>863.7583556151595</v>
+        <v>905.6220633262809</v>
       </c>
       <c r="X22" t="n">
-        <v>763.6034109640309</v>
+        <v>763.603410964031</v>
       </c>
       <c r="Y22" t="n">
-        <v>628.7817303562681</v>
+        <v>628.7817303562683</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1297.653378617623</v>
       </c>
       <c r="E23" t="n">
-        <v>997.8360245551462</v>
+        <v>997.836024555146</v>
       </c>
       <c r="F23" t="n">
-        <v>672.8210183013057</v>
+        <v>672.821018301306</v>
       </c>
       <c r="G23" t="n">
-        <v>341.6395419103264</v>
+        <v>341.6395419103269</v>
       </c>
       <c r="H23" t="n">
         <v>108.7258104862472</v>
       </c>
       <c r="I23" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J23" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K23" t="n">
-        <v>651.1943712251873</v>
+        <v>651.194371225187</v>
       </c>
       <c r="L23" t="n">
         <v>1194.017190257181</v>
@@ -5999,19 +5999,19 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N23" t="n">
-        <v>2430.630218974723</v>
+        <v>2430.630218974722</v>
       </c>
       <c r="O23" t="n">
         <v>2967.124778524352</v>
       </c>
       <c r="P23" t="n">
-        <v>3387.336089952114</v>
+        <v>3387.336089952113</v>
       </c>
       <c r="Q23" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R23" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S23" t="n">
         <v>3553.959469269562</v>
@@ -6020,16 +6020,16 @@
         <v>3424.847749501246</v>
       </c>
       <c r="U23" t="n">
-        <v>3257.121777329111</v>
+        <v>3257.12177732911</v>
       </c>
       <c r="V23" t="n">
-        <v>3012.029788521308</v>
+        <v>3012.029788521307</v>
       </c>
       <c r="W23" t="n">
-        <v>2745.232031786961</v>
+        <v>2745.23203178696</v>
       </c>
       <c r="X23" t="n">
-        <v>2457.737172061648</v>
+        <v>2457.737172061647</v>
       </c>
       <c r="Y23" t="n">
         <v>2153.568738621604</v>
@@ -6063,7 +6063,7 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I24" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J24" t="n">
         <v>187.9725409423084</v>
@@ -6075,16 +6075,16 @@
         <v>1008.938126317002</v>
       </c>
       <c r="M24" t="n">
-        <v>1329.273445846703</v>
+        <v>1579.177904591844</v>
       </c>
       <c r="N24" t="n">
-        <v>1673.794101484321</v>
+        <v>1923.698560229462</v>
       </c>
       <c r="O24" t="n">
-        <v>2215.17094812688</v>
+        <v>2172.451974313424</v>
       </c>
       <c r="P24" t="n">
-        <v>2632.670528506027</v>
+        <v>2589.951554692571</v>
       </c>
       <c r="Q24" t="n">
         <v>2659.346113205901</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>533.1041640617959</v>
+        <v>533.1041640617955</v>
       </c>
       <c r="C25" t="n">
-        <v>450.1388796696564</v>
+        <v>450.138879669656</v>
       </c>
       <c r="D25" t="n">
-        <v>385.9931387930882</v>
+        <v>385.9931387930878</v>
       </c>
       <c r="E25" t="n">
-        <v>324.0509437464626</v>
+        <v>324.0509437464623</v>
       </c>
       <c r="F25" t="n">
-        <v>263.1318947843197</v>
+        <v>263.1318947843195</v>
       </c>
       <c r="G25" t="n">
-        <v>180.4669740461697</v>
+        <v>180.4669740461695</v>
       </c>
       <c r="H25" t="n">
-        <v>111.925621887373</v>
+        <v>111.9256218873729</v>
       </c>
       <c r="I25" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J25" t="n">
-        <v>137.2469886199482</v>
+        <v>137.2469886199483</v>
       </c>
       <c r="K25" t="n">
-        <v>319.2557016200307</v>
+        <v>319.2557016200308</v>
       </c>
       <c r="L25" t="n">
-        <v>584.1268134424542</v>
+        <v>584.1268134424545</v>
       </c>
       <c r="M25" t="n">
-        <v>869.2050261859079</v>
+        <v>869.2050261859082</v>
       </c>
       <c r="N25" t="n">
         <v>1154.942848949411</v>
       </c>
       <c r="O25" t="n">
-        <v>1409.283938815628</v>
+        <v>1409.283938815629</v>
       </c>
       <c r="P25" t="n">
         <v>1615.557022591234</v>
       </c>
       <c r="Q25" t="n">
-        <v>1700.857501095236</v>
+        <v>1700.857501095237</v>
       </c>
       <c r="R25" t="n">
-        <v>1655.047649841661</v>
+        <v>1655.047649841662</v>
       </c>
       <c r="S25" t="n">
-        <v>1620.746880101352</v>
+        <v>1533.073321136656</v>
       </c>
       <c r="T25" t="n">
-        <v>1480.964782798835</v>
+        <v>1480.964782798834</v>
       </c>
       <c r="U25" t="n">
-        <v>1277.781924497594</v>
+        <v>1277.781924497593</v>
       </c>
       <c r="V25" t="n">
         <v>1109.068334827474</v>
       </c>
       <c r="W25" t="n">
-        <v>905.6220633262806</v>
+        <v>905.6220633262807</v>
       </c>
       <c r="X25" t="n">
-        <v>763.6034109640307</v>
+        <v>763.6034109640309</v>
       </c>
       <c r="Y25" t="n">
-        <v>628.7817303562681</v>
+        <v>628.7817303562676</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1297.653378617623</v>
       </c>
       <c r="E26" t="n">
-        <v>997.8360245551462</v>
+        <v>997.8360245551459</v>
       </c>
       <c r="F26" t="n">
-        <v>672.8210183013061</v>
+        <v>672.8210183013059</v>
       </c>
       <c r="G26" t="n">
-        <v>341.639541910327</v>
+        <v>341.6395419103268</v>
       </c>
       <c r="H26" t="n">
         <v>108.7258104862472</v>
       </c>
       <c r="I26" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J26" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K26" t="n">
-        <v>651.194371225187</v>
+        <v>651.1943712251868</v>
       </c>
       <c r="L26" t="n">
         <v>1194.017190257181</v>
@@ -6236,7 +6236,7 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N26" t="n">
-        <v>2430.630218974723</v>
+        <v>2430.630218974722</v>
       </c>
       <c r="O26" t="n">
         <v>2967.124778524352</v>
@@ -6245,31 +6245,31 @@
         <v>3387.336089952114</v>
       </c>
       <c r="Q26" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="R26" t="n">
-        <v>3625.675524942797</v>
+        <v>3625.675524942796</v>
       </c>
       <c r="S26" t="n">
-        <v>3553.959469269562</v>
+        <v>3553.959469269561</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.847749501246</v>
+        <v>3424.847749501245</v>
       </c>
       <c r="U26" t="n">
-        <v>3257.121777329111</v>
+        <v>3257.12177732911</v>
       </c>
       <c r="V26" t="n">
-        <v>3012.029788521308</v>
+        <v>3012.029788521307</v>
       </c>
       <c r="W26" t="n">
-        <v>2745.232031786961</v>
+        <v>2745.23203178696</v>
       </c>
       <c r="X26" t="n">
-        <v>2457.737172061649</v>
+        <v>2457.737172061648</v>
       </c>
       <c r="Y26" t="n">
-        <v>2153.568738621605</v>
+        <v>2153.568738621604</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I27" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9725409423084</v>
+        <v>187.9725409423083</v>
       </c>
       <c r="K27" t="n">
-        <v>511.9312571287766</v>
+        <v>218.7315136576514</v>
       </c>
       <c r="L27" t="n">
-        <v>1008.938126317002</v>
+        <v>715.7383828458762</v>
       </c>
       <c r="M27" t="n">
-        <v>1640.90092200041</v>
+        <v>1036.073702375578</v>
       </c>
       <c r="N27" t="n">
-        <v>1985.421577638027</v>
+        <v>1700.469686184195</v>
       </c>
       <c r="O27" t="n">
-        <v>2234.174991721989</v>
+        <v>2241.846532826753</v>
       </c>
       <c r="P27" t="n">
-        <v>2589.951554692571</v>
+        <v>2659.346113205901</v>
       </c>
       <c r="Q27" t="n">
         <v>2659.346113205901</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>468.9584231852276</v>
+        <v>445.4306050971009</v>
       </c>
       <c r="C28" t="n">
-        <v>385.9931387930882</v>
+        <v>362.4653207049615</v>
       </c>
       <c r="D28" t="n">
-        <v>385.9931387930882</v>
+        <v>298.3195798283934</v>
       </c>
       <c r="E28" t="n">
-        <v>324.0509437464626</v>
+        <v>236.3773847817678</v>
       </c>
       <c r="F28" t="n">
-        <v>263.1318947843197</v>
+        <v>194.5905426255228</v>
       </c>
       <c r="G28" t="n">
-        <v>180.4669740461697</v>
+        <v>111.9256218873729</v>
       </c>
       <c r="H28" t="n">
-        <v>111.925621887373</v>
+        <v>111.9256218873729</v>
       </c>
       <c r="I28" t="n">
-        <v>72.51351049885594</v>
+        <v>72.51351049885592</v>
       </c>
       <c r="J28" t="n">
-        <v>137.2469886199482</v>
+        <v>137.2469886199483</v>
       </c>
       <c r="K28" t="n">
-        <v>319.2557016200307</v>
+        <v>319.2557016200309</v>
       </c>
       <c r="L28" t="n">
-        <v>584.1268134424541</v>
+        <v>584.1268134424544</v>
       </c>
       <c r="M28" t="n">
-        <v>869.2050261859079</v>
+        <v>869.2050261859083</v>
       </c>
       <c r="N28" t="n">
         <v>1154.942848949411</v>
       </c>
       <c r="O28" t="n">
-        <v>1409.283938815628</v>
+        <v>1409.283938815629</v>
       </c>
       <c r="P28" t="n">
         <v>1615.557022591234</v>
@@ -6406,28 +6406,28 @@
         <v>1700.857501095237</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.047649841661</v>
+        <v>1655.047649841662</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.073321136655</v>
+        <v>1533.073321136656</v>
       </c>
       <c r="T28" t="n">
-        <v>1393.291223834138</v>
+        <v>1393.291223834139</v>
       </c>
       <c r="U28" t="n">
-        <v>1213.636183621025</v>
+        <v>1190.108365532898</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.922593950905</v>
+        <v>1021.394775862778</v>
       </c>
       <c r="W28" t="n">
-        <v>841.4763224497119</v>
+        <v>817.9485043615852</v>
       </c>
       <c r="X28" t="n">
-        <v>699.457670087462</v>
+        <v>675.9298519993354</v>
       </c>
       <c r="Y28" t="n">
-        <v>564.6359894796999</v>
+        <v>541.108171391573</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1852.93979709325</v>
       </c>
       <c r="C29" t="n">
-        <v>1569.948178688605</v>
+        <v>1569.948178688606</v>
       </c>
       <c r="D29" t="n">
-        <v>1297.653378617622</v>
+        <v>1297.653378617623</v>
       </c>
       <c r="E29" t="n">
-        <v>997.8360245551455</v>
+        <v>997.8360245551459</v>
       </c>
       <c r="F29" t="n">
-        <v>672.8210183013052</v>
+        <v>672.8210183013057</v>
       </c>
       <c r="G29" t="n">
         <v>341.6395419103264</v>
       </c>
       <c r="H29" t="n">
-        <v>108.7258104862466</v>
+        <v>108.7258104862473</v>
       </c>
       <c r="I29" t="n">
         <v>72.51351049885594</v>
@@ -6464,7 +6464,7 @@
         <v>255.780242582905</v>
       </c>
       <c r="K29" t="n">
-        <v>651.1943712251873</v>
+        <v>651.194371225187</v>
       </c>
       <c r="L29" t="n">
         <v>1194.017190257181</v>
@@ -6491,7 +6491,7 @@
         <v>3553.959469269562</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.847749501246</v>
+        <v>3424.847749501247</v>
       </c>
       <c r="U29" t="n">
         <v>3257.121777329111</v>
@@ -6543,19 +6543,19 @@
         <v>187.9725409423084</v>
       </c>
       <c r="K30" t="n">
-        <v>511.9312571287766</v>
+        <v>313.3301010001458</v>
       </c>
       <c r="L30" t="n">
-        <v>1008.938126317002</v>
+        <v>654.5916763498399</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.178724241396</v>
+        <v>1286.554472033248</v>
       </c>
       <c r="N30" t="n">
-        <v>2048.574708050013</v>
+        <v>1631.075127670866</v>
       </c>
       <c r="O30" t="n">
-        <v>2589.951554692571</v>
+        <v>2172.451974313424</v>
       </c>
       <c r="P30" t="n">
         <v>2589.951554692571</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.1041640617964</v>
+        <v>445.4306050970984</v>
       </c>
       <c r="C31" t="n">
-        <v>450.1388796696568</v>
+        <v>362.4653207049589</v>
       </c>
       <c r="D31" t="n">
-        <v>385.9931387930885</v>
+        <v>298.3195798283906</v>
       </c>
       <c r="E31" t="n">
-        <v>324.0509437464628</v>
+        <v>284.6388323579457</v>
       </c>
       <c r="F31" t="n">
-        <v>263.1318947843199</v>
+        <v>223.7197833958028</v>
       </c>
       <c r="G31" t="n">
-        <v>180.4669740461698</v>
+        <v>141.0548626576527</v>
       </c>
       <c r="H31" t="n">
-        <v>111.925621887373</v>
+        <v>72.51351049885594</v>
       </c>
       <c r="I31" t="n">
         <v>72.51351049885594</v>
@@ -6622,13 +6622,13 @@
         <v>137.2469886199482</v>
       </c>
       <c r="K31" t="n">
-        <v>319.2557016200306</v>
+        <v>319.2557016200307</v>
       </c>
       <c r="L31" t="n">
         <v>584.126813442454</v>
       </c>
       <c r="M31" t="n">
-        <v>869.2050261859079</v>
+        <v>869.2050261859077</v>
       </c>
       <c r="N31" t="n">
         <v>1154.942848949411</v>
@@ -6658,13 +6658,13 @@
         <v>1021.394775862777</v>
       </c>
       <c r="W31" t="n">
-        <v>817.9485043615834</v>
+        <v>817.9485043615833</v>
       </c>
       <c r="X31" t="n">
-        <v>763.6034109640312</v>
+        <v>675.9298519993334</v>
       </c>
       <c r="Y31" t="n">
-        <v>628.7817303562687</v>
+        <v>541.1081713915707</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1827.197585726481</v>
+        <v>1882.3594672267</v>
       </c>
       <c r="C32" t="n">
-        <v>1547.883426088518</v>
+        <v>1603.045307588737</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.266084784216</v>
+        <v>1334.427966284436</v>
       </c>
       <c r="E32" t="n">
         <v>983.1261894884208</v>
@@ -6689,10 +6689,10 @@
         <v>661.7886420012621</v>
       </c>
       <c r="G32" t="n">
-        <v>334.2846243769643</v>
+        <v>334.2846243769642</v>
       </c>
       <c r="H32" t="n">
-        <v>105.0483517195659</v>
+        <v>105.0483517195658</v>
       </c>
       <c r="I32" t="n">
         <v>72.51351049885592</v>
@@ -6731,19 +6731,19 @@
         <v>3432.202667034609</v>
       </c>
       <c r="U32" t="n">
-        <v>3212.992272128935</v>
+        <v>3268.154153629154</v>
       </c>
       <c r="V32" t="n">
-        <v>2971.577742087813</v>
+        <v>3026.739623588032</v>
       </c>
       <c r="W32" t="n">
-        <v>2708.457444120148</v>
+        <v>2763.619325620367</v>
       </c>
       <c r="X32" t="n">
-        <v>2424.640043161517</v>
+        <v>2479.801924661736</v>
       </c>
       <c r="Y32" t="n">
-        <v>2124.149068488154</v>
+        <v>2179.310949988373</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>187.9725409423084</v>
       </c>
       <c r="K33" t="n">
-        <v>511.9312571287766</v>
+        <v>313.3301010001458</v>
       </c>
       <c r="L33" t="n">
-        <v>741.8943629971258</v>
+        <v>810.3369701883707</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.857158680534</v>
+        <v>1130.672289718073</v>
       </c>
       <c r="N33" t="n">
-        <v>2038.253142489151</v>
+        <v>1795.06827352669</v>
       </c>
       <c r="O33" t="n">
-        <v>2579.629989131709</v>
+        <v>2043.821687610652</v>
       </c>
       <c r="P33" t="n">
-        <v>2589.951554692571</v>
+        <v>2432.956469596891</v>
       </c>
       <c r="Q33" t="n">
         <v>2659.346113205901</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507.3619526950269</v>
+        <v>507.3619526950264</v>
       </c>
       <c r="C34" t="n">
-        <v>428.0741270695688</v>
+        <v>428.0741270695683</v>
       </c>
       <c r="D34" t="n">
-        <v>367.6058449596819</v>
+        <v>367.6058449596815</v>
       </c>
       <c r="E34" t="n">
-        <v>309.3411086797377</v>
+        <v>309.3411086797372</v>
       </c>
       <c r="F34" t="n">
-        <v>252.0995184842761</v>
+        <v>252.0995184842757</v>
       </c>
       <c r="G34" t="n">
-        <v>173.1120565128069</v>
+        <v>173.112056512807</v>
       </c>
       <c r="H34" t="n">
         <v>108.2481631206916</v>
@@ -6856,25 +6856,25 @@
         <v>72.51351049885592</v>
       </c>
       <c r="J34" t="n">
-        <v>140.8512659571726</v>
+        <v>140.8512659571721</v>
       </c>
       <c r="K34" t="n">
-        <v>326.4642562944795</v>
+        <v>326.464256294479</v>
       </c>
       <c r="L34" t="n">
-        <v>594.9396454541272</v>
+        <v>594.9396454541268</v>
       </c>
       <c r="M34" t="n">
-        <v>883.6221355348054</v>
+        <v>883.6221355348048</v>
       </c>
       <c r="N34" t="n">
-        <v>1172.964235635533</v>
+        <v>1172.964235635532</v>
       </c>
       <c r="O34" t="n">
         <v>1430.909602838974</v>
       </c>
       <c r="P34" t="n">
-        <v>1640.786963951805</v>
+        <v>1640.786963951804</v>
       </c>
       <c r="Q34" t="n">
         <v>1729.691719793032</v>
@@ -6886,22 +6886,22 @@
         <v>1569.262457367813</v>
       </c>
       <c r="T34" t="n">
-        <v>1433.157818831978</v>
+        <v>1433.157818831977</v>
       </c>
       <c r="U34" t="n">
-        <v>1233.652419297418</v>
+        <v>1233.652419297417</v>
       </c>
       <c r="V34" t="n">
         <v>1068.616288393979</v>
       </c>
       <c r="W34" t="n">
-        <v>868.8474756594676</v>
+        <v>868.847475659467</v>
       </c>
       <c r="X34" t="n">
-        <v>730.5062820638991</v>
+        <v>730.5062820638985</v>
       </c>
       <c r="Y34" t="n">
-        <v>599.3620602228177</v>
+        <v>599.3620602228173</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1882.3594672267</v>
+        <v>1827.197585726481</v>
       </c>
       <c r="C35" t="n">
         <v>1547.883426088518</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.266084784217</v>
+        <v>1279.266084784216</v>
       </c>
       <c r="E35" t="n">
-        <v>983.1261894884211</v>
+        <v>983.1261894884208</v>
       </c>
       <c r="F35" t="n">
-        <v>661.7886420012624</v>
+        <v>661.7886420012621</v>
       </c>
       <c r="G35" t="n">
-        <v>334.2846243769644</v>
+        <v>334.2846243769642</v>
       </c>
       <c r="H35" t="n">
-        <v>105.0483517195659</v>
+        <v>105.0483517195658</v>
       </c>
       <c r="I35" t="n">
         <v>72.51351049885592</v>
@@ -6977,10 +6977,10 @@
         <v>2763.619325620367</v>
       </c>
       <c r="X35" t="n">
-        <v>2479.801924661736</v>
+        <v>2424.640043161517</v>
       </c>
       <c r="Y35" t="n">
-        <v>2179.310949988373</v>
+        <v>2124.149068488154</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>72.51351049885592</v>
       </c>
       <c r="K36" t="n">
-        <v>104.7532423104917</v>
+        <v>396.4722266853241</v>
       </c>
       <c r="L36" t="n">
-        <v>334.7163481788408</v>
+        <v>626.4353325536733</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6791438622487</v>
+        <v>1102.307491325164</v>
       </c>
       <c r="N36" t="n">
-        <v>1631.075127670866</v>
+        <v>1766.703475133781</v>
       </c>
       <c r="O36" t="n">
-        <v>2172.451974313424</v>
+        <v>2015.456889217744</v>
       </c>
       <c r="P36" t="n">
-        <v>2589.951554692571</v>
+        <v>2432.956469596891</v>
       </c>
       <c r="Q36" t="n">
         <v>2659.346113205901</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>507.3619526950267</v>
+        <v>507.3619526950264</v>
       </c>
       <c r="C37" t="n">
-        <v>428.0741270695685</v>
+        <v>428.0741270695684</v>
       </c>
       <c r="D37" t="n">
-        <v>367.6058449596816</v>
+        <v>367.6058449596815</v>
       </c>
       <c r="E37" t="n">
-        <v>309.3411086797373</v>
+        <v>309.3411086797372</v>
       </c>
       <c r="F37" t="n">
         <v>252.0995184842757</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1120565128071</v>
+        <v>173.112056512807</v>
       </c>
       <c r="H37" t="n">
         <v>108.2481631206916</v>
@@ -7093,52 +7093,52 @@
         <v>72.51351049885592</v>
       </c>
       <c r="J37" t="n">
-        <v>140.8512659571722</v>
+        <v>140.8512659571726</v>
       </c>
       <c r="K37" t="n">
-        <v>326.464256294479</v>
+        <v>326.4642562944795</v>
       </c>
       <c r="L37" t="n">
-        <v>594.9396454541268</v>
+        <v>594.9396454541273</v>
       </c>
       <c r="M37" t="n">
-        <v>883.6221355348049</v>
+        <v>883.6221355348056</v>
       </c>
       <c r="N37" t="n">
-        <v>1172.964235635532</v>
+        <v>1172.964235635533</v>
       </c>
       <c r="O37" t="n">
-        <v>1430.909602838974</v>
+        <v>1430.909602838975</v>
       </c>
       <c r="P37" t="n">
-        <v>1640.786963951804</v>
+        <v>1640.786963951805</v>
       </c>
       <c r="Q37" t="n">
-        <v>1729.691719793031</v>
+        <v>1729.691719793032</v>
       </c>
       <c r="R37" t="n">
-        <v>1687.559327306139</v>
+        <v>1687.559327306138</v>
       </c>
       <c r="S37" t="n">
-        <v>1569.262457367814</v>
+        <v>1569.262457367813</v>
       </c>
       <c r="T37" t="n">
         <v>1433.157818831978</v>
       </c>
       <c r="U37" t="n">
-        <v>1233.652419297418</v>
+        <v>1233.652419297417</v>
       </c>
       <c r="V37" t="n">
         <v>1068.616288393979</v>
       </c>
       <c r="W37" t="n">
-        <v>868.8474756594676</v>
+        <v>868.847475659467</v>
       </c>
       <c r="X37" t="n">
-        <v>730.506282063899</v>
+        <v>730.5062820638985</v>
       </c>
       <c r="Y37" t="n">
-        <v>599.3620602228176</v>
+        <v>599.3620602228173</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>1882.3594672267</v>
       </c>
       <c r="C38" t="n">
-        <v>1603.045307588737</v>
+        <v>1603.045307588738</v>
       </c>
       <c r="D38" t="n">
         <v>1334.427966284436</v>
       </c>
       <c r="E38" t="n">
-        <v>1038.28807098864</v>
+        <v>1038.288070988641</v>
       </c>
       <c r="F38" t="n">
-        <v>716.9505235014815</v>
+        <v>661.7886420012622</v>
       </c>
       <c r="G38" t="n">
-        <v>389.4465058771837</v>
+        <v>334.2846243769644</v>
       </c>
       <c r="H38" t="n">
-        <v>105.0483517195658</v>
+        <v>105.0483517195659</v>
       </c>
       <c r="I38" t="n">
-        <v>72.51351049885592</v>
+        <v>72.51351049885594</v>
       </c>
       <c r="J38" t="n">
         <v>255.780242582905</v>
       </c>
       <c r="K38" t="n">
-        <v>651.194371225187</v>
+        <v>651.1943712251871</v>
       </c>
       <c r="L38" t="n">
         <v>1194.017190257181</v>
@@ -7184,31 +7184,31 @@
         <v>1814.618712663136</v>
       </c>
       <c r="N38" t="n">
-        <v>2430.630218974722</v>
+        <v>2430.630218974723</v>
       </c>
       <c r="O38" t="n">
-        <v>2967.124778524351</v>
+        <v>2967.124778524352</v>
       </c>
       <c r="P38" t="n">
-        <v>3387.336089952113</v>
+        <v>3387.336089952114</v>
       </c>
       <c r="Q38" t="n">
-        <v>3625.675524942796</v>
+        <v>3625.675524942797</v>
       </c>
       <c r="R38" t="n">
-        <v>3625.675524942796</v>
+        <v>3625.675524942797</v>
       </c>
       <c r="S38" t="n">
-        <v>3557.636928036243</v>
+        <v>3557.636928036244</v>
       </c>
       <c r="T38" t="n">
         <v>3432.202667034609</v>
       </c>
       <c r="U38" t="n">
-        <v>3268.154153629154</v>
+        <v>3268.154153629155</v>
       </c>
       <c r="V38" t="n">
-        <v>3026.739623588032</v>
+        <v>3026.739623588033</v>
       </c>
       <c r="W38" t="n">
         <v>2763.619325620367</v>
@@ -7217,7 +7217,7 @@
         <v>2479.801924661736</v>
       </c>
       <c r="Y38" t="n">
-        <v>2179.310949988373</v>
+        <v>2179.310949988374</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>119.6082756435916</v>
       </c>
       <c r="I39" t="n">
-        <v>72.51351049885592</v>
+        <v>72.51351049885594</v>
       </c>
       <c r="J39" t="n">
-        <v>72.51351049885592</v>
+        <v>72.51351049885594</v>
       </c>
       <c r="K39" t="n">
-        <v>72.51351049885592</v>
+        <v>197.8710705566933</v>
       </c>
       <c r="L39" t="n">
-        <v>177.7212630831601</v>
+        <v>694.8779397449183</v>
       </c>
       <c r="M39" t="n">
-        <v>809.684058766568</v>
+        <v>1326.840735428326</v>
       </c>
       <c r="N39" t="n">
-        <v>1474.080042575185</v>
+        <v>1671.361391065944</v>
       </c>
       <c r="O39" t="n">
-        <v>2015.456889217744</v>
+        <v>2212.738237708502</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.956469596891</v>
+        <v>2630.237818087649</v>
       </c>
       <c r="Q39" t="n">
         <v>2659.346113205901</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>507.3619526950264</v>
+        <v>507.361952695026</v>
       </c>
       <c r="C40" t="n">
-        <v>428.0741270695683</v>
+        <v>428.0741270695679</v>
       </c>
       <c r="D40" t="n">
-        <v>367.6058449596815</v>
+        <v>367.605844959681</v>
       </c>
       <c r="E40" t="n">
-        <v>309.3411086797372</v>
+        <v>309.3411086797367</v>
       </c>
       <c r="F40" t="n">
-        <v>252.0995184842757</v>
+        <v>252.0995184842751</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1120565128069</v>
+        <v>173.1120565128065</v>
       </c>
       <c r="H40" t="n">
         <v>108.2481631206916</v>
       </c>
       <c r="I40" t="n">
-        <v>72.51351049885592</v>
+        <v>72.51351049885594</v>
       </c>
       <c r="J40" t="n">
-        <v>140.8512659571727</v>
+        <v>140.851265957172</v>
       </c>
       <c r="K40" t="n">
-        <v>326.4642562944796</v>
+        <v>326.4642562944789</v>
       </c>
       <c r="L40" t="n">
-        <v>594.9396454541275</v>
+        <v>594.9396454541268</v>
       </c>
       <c r="M40" t="n">
-        <v>883.6221355348056</v>
+        <v>883.6221355348048</v>
       </c>
       <c r="N40" t="n">
-        <v>1172.964235635533</v>
+        <v>1172.964235635532</v>
       </c>
       <c r="O40" t="n">
-        <v>1430.909602838975</v>
+        <v>1430.909602838974</v>
       </c>
       <c r="P40" t="n">
-        <v>1640.786963951805</v>
+        <v>1640.786963951804</v>
       </c>
       <c r="Q40" t="n">
         <v>1729.691719793031</v>
@@ -7369,13 +7369,13 @@
         <v>1068.616288393979</v>
       </c>
       <c r="W40" t="n">
-        <v>868.8474756594671</v>
+        <v>868.8474756594669</v>
       </c>
       <c r="X40" t="n">
-        <v>730.5062820638987</v>
+        <v>730.5062820638983</v>
       </c>
       <c r="Y40" t="n">
-        <v>599.3620602228173</v>
+        <v>599.3620602228169</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1882.3594672267</v>
+        <v>1827.197585726481</v>
       </c>
       <c r="C41" t="n">
         <v>1547.883426088518</v>
@@ -7488,22 +7488,22 @@
         <v>72.51351049885594</v>
       </c>
       <c r="J42" t="n">
-        <v>72.51351049885594</v>
+        <v>178.5308719651379</v>
       </c>
       <c r="K42" t="n">
-        <v>72.51351049885594</v>
+        <v>502.4895881516061</v>
       </c>
       <c r="L42" t="n">
-        <v>302.4766163672051</v>
+        <v>732.4526940199553</v>
       </c>
       <c r="M42" t="n">
-        <v>934.439412050613</v>
+        <v>1364.415489703363</v>
       </c>
       <c r="N42" t="n">
-        <v>1598.83539585923</v>
+        <v>1708.936145340981</v>
       </c>
       <c r="O42" t="n">
-        <v>2140.212242501789</v>
+        <v>2250.31299198354</v>
       </c>
       <c r="P42" t="n">
         <v>2432.956469596891</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3619526950263</v>
+        <v>507.3619526950261</v>
       </c>
       <c r="C43" t="n">
-        <v>428.0741270695682</v>
+        <v>428.074127069568</v>
       </c>
       <c r="D43" t="n">
-        <v>367.6058449596813</v>
+        <v>367.6058449596811</v>
       </c>
       <c r="E43" t="n">
-        <v>309.3411086797371</v>
+        <v>309.3411086797369</v>
       </c>
       <c r="F43" t="n">
-        <v>252.0995184842755</v>
+        <v>252.0995184842754</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1120565128069</v>
+        <v>173.1120565128068</v>
       </c>
       <c r="H43" t="n">
-        <v>108.2481631206915</v>
+        <v>108.2481631206914</v>
       </c>
       <c r="I43" t="n">
         <v>72.51351049885594</v>
       </c>
       <c r="J43" t="n">
-        <v>140.8512659571727</v>
+        <v>140.8512659571726</v>
       </c>
       <c r="K43" t="n">
-        <v>326.4642562944796</v>
+        <v>326.4642562944795</v>
       </c>
       <c r="L43" t="n">
-        <v>594.9396454541275</v>
+        <v>594.9396454541269</v>
       </c>
       <c r="M43" t="n">
-        <v>883.6221355348055</v>
+        <v>883.622135534805</v>
       </c>
       <c r="N43" t="n">
         <v>1172.964235635533</v>
       </c>
       <c r="O43" t="n">
-        <v>1430.909602838975</v>
+        <v>1430.909602838974</v>
       </c>
       <c r="P43" t="n">
-        <v>1640.786963951805</v>
+        <v>1640.786963951804</v>
       </c>
       <c r="Q43" t="n">
-        <v>1729.691719793031</v>
+        <v>1729.691719793032</v>
       </c>
       <c r="R43" t="n">
         <v>1687.559327306138</v>
@@ -7597,22 +7597,22 @@
         <v>1569.262457367813</v>
       </c>
       <c r="T43" t="n">
-        <v>1433.157818831977</v>
+        <v>1433.157818831978</v>
       </c>
       <c r="U43" t="n">
         <v>1233.652419297417</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.616288393979</v>
+        <v>1068.616288393978</v>
       </c>
       <c r="W43" t="n">
-        <v>868.8474756594669</v>
+        <v>868.8474756594668</v>
       </c>
       <c r="X43" t="n">
-        <v>730.5062820638984</v>
+        <v>730.5062820638983</v>
       </c>
       <c r="Y43" t="n">
-        <v>599.3620602228171</v>
+        <v>599.362060222817</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>72.51351049885594</v>
       </c>
       <c r="J44" t="n">
-        <v>255.7802425829049</v>
+        <v>255.780242582905</v>
       </c>
       <c r="K44" t="n">
         <v>651.1943712251868</v>
@@ -7688,7 +7688,7 @@
         <v>2763.619325620367</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.640043161517</v>
+        <v>2479.801924661736</v>
       </c>
       <c r="Y44" t="n">
         <v>2124.149068488154</v>
@@ -7731,19 +7731,19 @@
         <v>313.3301010001458</v>
       </c>
       <c r="L45" t="n">
-        <v>810.3369701883707</v>
+        <v>705.2007984075522</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.299765871779</v>
+        <v>1337.16359409096</v>
       </c>
       <c r="N45" t="n">
-        <v>2106.695749680396</v>
+        <v>2001.559577899577</v>
       </c>
       <c r="O45" t="n">
-        <v>2648.072596322954</v>
+        <v>2250.31299198354</v>
       </c>
       <c r="P45" t="n">
-        <v>2648.072596322954</v>
+        <v>2432.956469596891</v>
       </c>
       <c r="Q45" t="n">
         <v>2659.346113205901</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3619526950262</v>
+        <v>507.3619526950266</v>
       </c>
       <c r="C46" t="n">
-        <v>428.0741270695681</v>
+        <v>428.0741270695685</v>
       </c>
       <c r="D46" t="n">
-        <v>367.6058449596813</v>
+        <v>367.6058449596816</v>
       </c>
       <c r="E46" t="n">
-        <v>309.341108679737</v>
+        <v>309.3411086797373</v>
       </c>
       <c r="F46" t="n">
-        <v>252.0995184842755</v>
+        <v>252.0995184842757</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1120565128069</v>
+        <v>173.1120565128071</v>
       </c>
       <c r="H46" t="n">
-        <v>108.2481631206915</v>
+        <v>108.2481631206916</v>
       </c>
       <c r="I46" t="n">
         <v>72.51351049885594</v>
@@ -7813,19 +7813,19 @@
         <v>594.9396454541273</v>
       </c>
       <c r="M46" t="n">
-        <v>883.6221355348056</v>
+        <v>883.6221355348054</v>
       </c>
       <c r="N46" t="n">
         <v>1172.964235635533</v>
       </c>
       <c r="O46" t="n">
-        <v>1430.909602838975</v>
+        <v>1430.909602838974</v>
       </c>
       <c r="P46" t="n">
-        <v>1640.786963951805</v>
+        <v>1640.786963951804</v>
       </c>
       <c r="Q46" t="n">
-        <v>1729.691719793031</v>
+        <v>1729.691719793032</v>
       </c>
       <c r="R46" t="n">
         <v>1687.559327306138</v>
@@ -7834,7 +7834,7 @@
         <v>1569.262457367813</v>
       </c>
       <c r="T46" t="n">
-        <v>1433.157818831977</v>
+        <v>1433.157818831978</v>
       </c>
       <c r="U46" t="n">
         <v>1233.652419297417</v>
@@ -7843,13 +7843,13 @@
         <v>1068.616288393979</v>
       </c>
       <c r="W46" t="n">
-        <v>868.8474756594669</v>
+        <v>868.8474756594671</v>
       </c>
       <c r="X46" t="n">
-        <v>730.5062820638984</v>
+        <v>730.5062820638987</v>
       </c>
       <c r="Y46" t="n">
-        <v>599.362060222817</v>
+        <v>599.3620602228175</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>259.476571122569</v>
+        <v>191.3641809352465</v>
       </c>
       <c r="N6" t="n">
         <v>375.9044444444758</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>225.3538581742619</v>
       </c>
       <c r="M9" t="n">
         <v>418.2905476243738</v>
       </c>
       <c r="N9" t="n">
-        <v>387.9064735273547</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O9" t="n">
-        <v>180.5256725890795</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>315.5949150958861</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>153.4018700093258</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>171.566255918854</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.9268091363988</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>168.9111083837964</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>144.4002312131807</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4068246426779</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>244.824836935737</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>169.3840923872853</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>151.3691648768764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.3447509112202</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.38285014417006</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.9890019367704</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>135.1819438071243</v>
+        <v>135.1819438071244</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.2317611410367</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>348.8029598186816</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>365.3097977962663</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>158.90383932215</v>
       </c>
       <c r="C13" t="n">
-        <v>134.6861924790243</v>
+        <v>146.3186802388405</v>
       </c>
       <c r="D13" t="n">
-        <v>127.6873321584249</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5058217867818</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>124.4929071631438</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>146.0213202213909</v>
@@ -23434,7 +23434,7 @@
         <v>132.0389873278312</v>
       </c>
       <c r="I13" t="n">
-        <v>103.2010389652542</v>
+        <v>25.17281416211698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.5348014316616</v>
+        <v>109.5348014316617</v>
       </c>
       <c r="S13" t="n">
-        <v>184.9376341085787</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.3340784088519</v>
       </c>
       <c r="V13" t="n">
-        <v>231.2095024640406</v>
+        <v>231.2095024640407</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.7815145292498</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.6565124923074</v>
+        <v>197.6565124923075</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>115.1150016690517</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>385.9479048819239</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.0527103176917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.0036512612553</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>306.8241176103475</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8029598186816</v>
+        <v>184.7451151597188</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.9038393221499</v>
+        <v>158.9038393221498</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.3186802388403</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.6873321584249</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.5058217867817</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>124.4929071631438</v>
       </c>
       <c r="G16" t="n">
-        <v>146.0213202213909</v>
+        <v>146.0213202213908</v>
       </c>
       <c r="H16" t="n">
-        <v>132.0389873278312</v>
+        <v>132.0389873278311</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.2010389652542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.99776347377745</v>
       </c>
       <c r="S16" t="n">
-        <v>17.64562786495031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.5673250201138</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.3340784088518</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.2095024640406</v>
+        <v>231.2095024640405</v>
       </c>
       <c r="W16" t="n">
-        <v>265.5948574768036</v>
+        <v>265.5948574768035</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.6565124923074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.35175274103921</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>86.79682337504904</v>
       </c>
       <c r="U19" t="n">
-        <v>41.44507063401042</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.35175274103921</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>86.79682337504937</v>
       </c>
       <c r="X22" t="n">
-        <v>41.44507063401036</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>86.7968233750494</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>86.79682337504767</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.50428346780257</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.94088473783879</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>67.85593863720869</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>23.29253990724678</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.77883310041901</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.01799027463191</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>86.79682337505062</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1040759.823757144</v>
+        <v>1040759.823757145</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
@@ -26323,10 +26323,10 @@
         <v>194039.9671411622</v>
       </c>
       <c r="F2" t="n">
-        <v>194039.9671411622</v>
+        <v>194039.9671411623</v>
       </c>
       <c r="G2" t="n">
-        <v>225213.6276784028</v>
+        <v>225213.6276784029</v>
       </c>
       <c r="H2" t="n">
         <v>225213.6276784028</v>
@@ -26347,7 +26347,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="O2" t="n">
         <v>225786.486712678</v>
@@ -26372,37 +26372,37 @@
         <v>36660.32665967679</v>
       </c>
       <c r="E3" t="n">
-        <v>640809.6532069474</v>
+        <v>640809.6532069473</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.168498726063634e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>51346.4389524979</v>
+        <v>51346.43895249786</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>79802.45528693617</v>
+        <v>79802.45528693614</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024570873</v>
+        <v>913.2558024571913</v>
       </c>
       <c r="L3" t="n">
-        <v>62255.0880091385</v>
+        <v>62255.08800913849</v>
       </c>
       <c r="M3" t="n">
         <v>157063.9030387794</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16742.51268782993</v>
+        <v>16742.51268782992</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>277804.1398925067</v>
@@ -26424,40 +26424,40 @@
         <v>266571.0338716182</v>
       </c>
       <c r="E4" t="n">
-        <v>21960.76221320021</v>
+        <v>21960.76221320015</v>
       </c>
       <c r="F4" t="n">
-        <v>21960.76221320021</v>
+        <v>21960.76221320029</v>
       </c>
       <c r="G4" t="n">
-        <v>86820.66760511138</v>
+        <v>86820.66760511142</v>
       </c>
       <c r="H4" t="n">
-        <v>86820.66760511136</v>
+        <v>86820.66760511148</v>
       </c>
       <c r="I4" t="n">
-        <v>86820.66760511136</v>
+        <v>86820.66760511149</v>
       </c>
       <c r="J4" t="n">
-        <v>86820.66760511138</v>
+        <v>86820.66760511148</v>
       </c>
       <c r="K4" t="n">
         <v>86820.66760511135</v>
       </c>
       <c r="L4" t="n">
-        <v>88018.63413542291</v>
+        <v>88018.63413542294</v>
       </c>
       <c r="M4" t="n">
-        <v>88018.63413542289</v>
+        <v>88018.63413542294</v>
       </c>
       <c r="N4" t="n">
-        <v>88018.63413542294</v>
+        <v>88018.63413542288</v>
       </c>
       <c r="O4" t="n">
-        <v>88018.63413542291</v>
+        <v>88018.63413542288</v>
       </c>
       <c r="P4" t="n">
-        <v>88018.63413542291</v>
+        <v>88018.63413542288</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
-        <v>69460.68499059546</v>
+        <v>69460.68499059544</v>
       </c>
       <c r="F5" t="n">
-        <v>69460.68499059546</v>
+        <v>69460.68499059544</v>
       </c>
       <c r="G5" t="n">
-        <v>74856.48971096739</v>
+        <v>74856.48971096738</v>
       </c>
       <c r="H5" t="n">
-        <v>74856.48971096739</v>
+        <v>74856.48971096738</v>
       </c>
       <c r="I5" t="n">
-        <v>74856.48971096739</v>
+        <v>74856.48971096738</v>
       </c>
       <c r="J5" t="n">
-        <v>74856.48971096739</v>
+        <v>74856.48971096738</v>
       </c>
       <c r="K5" t="n">
         <v>74856.48971096738</v>
@@ -26503,7 +26503,7 @@
         <v>75162.55838921295</v>
       </c>
       <c r="N5" t="n">
-        <v>75162.55838921295</v>
+        <v>75162.55838921297</v>
       </c>
       <c r="O5" t="n">
         <v>75162.55838921297</v>
@@ -26522,46 +26522,46 @@
         <v>-182389.2737147948</v>
       </c>
       <c r="C6" t="n">
-        <v>-105086.5824872124</v>
+        <v>-105086.5824872125</v>
       </c>
       <c r="D6" t="n">
         <v>-128626.2533353971</v>
       </c>
       <c r="E6" t="n">
-        <v>-538191.1332695808</v>
+        <v>-538479.7379929582</v>
       </c>
       <c r="F6" t="n">
-        <v>102618.5199373666</v>
+        <v>102329.915213989</v>
       </c>
       <c r="G6" t="n">
-        <v>12190.03140982612</v>
+        <v>12184.82360042373</v>
       </c>
       <c r="H6" t="n">
-        <v>63536.47036232405</v>
+        <v>63531.26255292144</v>
       </c>
       <c r="I6" t="n">
-        <v>63536.47036232411</v>
+        <v>63531.26255292144</v>
       </c>
       <c r="J6" t="n">
-        <v>-16265.98492461209</v>
+        <v>-16271.19273401471</v>
       </c>
       <c r="K6" t="n">
-        <v>62623.21455986705</v>
+        <v>62618.0067504644</v>
       </c>
       <c r="L6" t="n">
         <v>350.2061789036816</v>
       </c>
       <c r="M6" t="n">
-        <v>-94458.60885073719</v>
+        <v>-94458.60885073723</v>
       </c>
       <c r="N6" t="n">
-        <v>62605.29418804204</v>
+        <v>62605.29418804208</v>
       </c>
       <c r="O6" t="n">
-        <v>45862.78150021215</v>
+        <v>45862.78150021224</v>
       </c>
       <c r="P6" t="n">
-        <v>62605.29418804217</v>
+        <v>62605.29418804214</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="F2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="G2" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="H2" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="I2" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="K2" t="n">
         <v>85.11118955040973</v>
       </c>
       <c r="L2" t="n">
+        <v>88.75187372942436</v>
+      </c>
+      <c r="M2" t="n">
+        <v>88.75187372942436</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88.7518737294243</v>
+      </c>
+      <c r="O2" t="n">
         <v>88.75187372942433</v>
       </c>
-      <c r="M2" t="n">
-        <v>88.75187372942429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>88.75187372942436</v>
-      </c>
-      <c r="O2" t="n">
-        <v>88.75187372942436</v>
-      </c>
       <c r="P2" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>577.5692264919028</v>
       </c>
       <c r="F3" t="n">
-        <v>577.5692264919028</v>
+        <v>577.5692264919027</v>
       </c>
       <c r="G3" t="n">
-        <v>577.5692264919028</v>
+        <v>577.5692264919027</v>
       </c>
       <c r="H3" t="n">
         <v>577.5692264919028</v>
@@ -26759,7 +26759,7 @@
         <v>577.5692264919028</v>
       </c>
       <c r="J3" t="n">
-        <v>577.5692264919028</v>
+        <v>577.5692264919027</v>
       </c>
       <c r="K3" t="n">
         <v>577.5692264919028</v>
@@ -26771,7 +26771,7 @@
         <v>577.5692264919028</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5692264919028</v>
+        <v>577.5692264919029</v>
       </c>
       <c r="O3" t="n">
         <v>577.5692264919028</v>
@@ -26796,22 +26796,22 @@
         <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="F4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="G4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="H4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="I4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="J4" t="n">
-        <v>906.4188812356991</v>
+        <v>906.418881235699</v>
       </c>
       <c r="K4" t="n">
         <v>906.4188812356991</v>
@@ -26823,7 +26823,7 @@
         <v>906.418881235699</v>
       </c>
       <c r="N4" t="n">
-        <v>906.418881235699</v>
+        <v>906.4188812356991</v>
       </c>
       <c r="O4" t="n">
         <v>906.4188812356991</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.460623407579543e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>64.18304869062237</v>
+        <v>64.18304869062233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.82373286963697</v>
+        <v>67.82373286963696</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.9281408597874</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>31.59378134121306</v>
       </c>
       <c r="E4" t="n">
-        <v>630.2623675333436</v>
+        <v>630.2623675333435</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483311</v>
+        <v>3.548443483483538</v>
       </c>
       <c r="L4" t="n">
         <v>31.59378134121295</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.460623407579543e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>64.18304869062237</v>
+        <v>64.18304869062233</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978738</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>31.59378134121306</v>
       </c>
       <c r="M4" t="n">
-        <v>630.2623675333436</v>
+        <v>630.2623675333435</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>161.7060589783458</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.70572723548749</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>161.0662563304149</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>172.0260510660966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>170.7252358559293</v>
       </c>
       <c r="H5" t="n">
         <v>339.3235460419765</v>
@@ -27661,13 +27661,13 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3444713639914</v>
@@ -27679,10 +27679,10 @@
         <v>104.6782363562706</v>
       </c>
       <c r="X5" t="n">
-        <v>125.1683683173266</v>
+        <v>288.6061223788851</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>37.22164189261224</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
         <v>171.5363898835276</v>
@@ -27749,19 +27749,19 @@
         <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>103.6289549153932</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>11.53390735311433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16967748427754</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
         <v>92.89079271141465</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>187.5128924036188</v>
       </c>
       <c r="I8" t="n">
         <v>205.0481221176458</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.4795457699687</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.1612299143384</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5802624033079553</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>196.3214183026174</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.9278262653587</v>
@@ -28032,7 +28032,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
         <v>14.93225064571201</v>
@@ -28062,7 +28062,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>197.9656075600891</v>
       </c>
       <c r="U10" t="n">
         <v>286.3155846423218</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>200.2860608232115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="C11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="D11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="E11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="F11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="G11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="H11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="I11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="T11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="U11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="V11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="W11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="X11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="C13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="D13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="E13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="F13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="G13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="H13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="I13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="J13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="K13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="L13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="M13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="N13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="O13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="P13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="S13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="T13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="U13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="V13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="W13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="X13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978735</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="C14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="D14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="E14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="F14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="G14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="H14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="I14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.016925283372814</v>
+        <v>4.016925283372842</v>
       </c>
       <c r="S14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="T14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="U14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="V14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="W14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="X14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="C16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="D16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="E16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="F16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="G16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="H16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="I16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="J16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="K16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="L16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="M16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="N16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="O16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="P16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="R16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="S16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="T16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="U16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="V16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="W16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="X16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.92814085978742</v>
+        <v>20.92814085978749</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="C17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="D17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="E17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="F17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="G17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="H17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="I17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.016925283372814</v>
+        <v>4.016925283372842</v>
       </c>
       <c r="S17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="T17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="U17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="V17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="W17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="X17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Y17" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="C19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="D19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="E19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="F19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="H19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="I19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="J19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="K19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="L19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="M19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="N19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="O19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="P19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="R19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="S19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="T19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="U19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="V19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="W19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="X19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="C20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="D20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955041115</v>
       </c>
       <c r="E20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="F20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="G20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="H20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="I20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="T20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="U20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="V20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="W20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="X20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Y20" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="C22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="D22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="E22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="F22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="H22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="I22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="J22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="K22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="L22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="M22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="N22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="O22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="P22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="R22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="S22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="T22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="U22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="V22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="W22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="X22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040982</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="C23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="D23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="E23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="F23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="G23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="H23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="I23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="T23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="U23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="V23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="W23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="X23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="Y23" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955041064</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="C25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="D25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="E25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="F25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="H25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="I25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="J25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="K25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="L25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="M25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="N25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="O25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="P25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="R25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="S25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="T25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="U25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="V25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="W25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="X25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040985</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="C26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="D26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="E26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="F26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="G26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="H26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="I26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.016925283372814</v>
+        <v>4.016925283372842</v>
       </c>
       <c r="S26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="T26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="U26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="V26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="W26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="X26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="C28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="D28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="E28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="F28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="H28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="I28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="J28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="K28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="L28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="M28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="N28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="O28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="P28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="R28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="S28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="T28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="U28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="V28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="W28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="X28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.11118955040979</v>
+        <v>85.11118955040988</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="C32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="D32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="E32" t="n">
-        <v>88.75187372942433</v>
+        <v>34.14161104420714</v>
       </c>
       <c r="F32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="G32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="H32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="I32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="T32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="U32" t="n">
-        <v>34.14161104420714</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="V32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="W32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="X32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="C34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="D34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="E34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="F34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="G34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="H34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="I34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="J34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="K34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="L34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="M34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="N34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="O34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="P34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="R34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="S34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="T34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="U34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="V34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="W34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="X34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.75187372942433</v>
+        <v>88.75187372942436</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="C35" t="n">
-        <v>34.14161104420771</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="D35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="E35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="F35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="G35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="H35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="I35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="T35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="U35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="V35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="W35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="X35" t="n">
-        <v>88.75187372942429</v>
+        <v>34.14161104420725</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="C37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="D37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="E37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="F37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="G37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="H37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="I37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="J37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="K37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="L37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="M37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="N37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="O37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="P37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="R37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="S37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="T37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="U37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="V37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="W37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="X37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.75187372942429</v>
+        <v>88.75187372942436</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="C38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="D38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="E38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="F38" t="n">
-        <v>88.75187372942436</v>
+        <v>34.14161104420691</v>
       </c>
       <c r="G38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="H38" t="n">
-        <v>34.14161104420714</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="I38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.016925283372814</v>
+        <v>4.016925283372785</v>
       </c>
       <c r="S38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="T38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="U38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="V38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="W38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="X38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="C40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="D40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="E40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="F40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="G40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="H40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="I40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="J40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="K40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="L40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="M40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="N40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="O40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="P40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="R40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="S40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="T40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="U40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="V40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="W40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="X40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.75187372942436</v>
+        <v>88.7518737294243</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88.75187372942436</v>
+        <v>34.14161104420663</v>
       </c>
       <c r="C41" t="n">
-        <v>34.1416110442068</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="D41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="E41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="F41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="G41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="H41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="I41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="T41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="U41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="V41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="W41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="X41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="C43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="D43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="E43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="F43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="G43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="H43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="I43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="J43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="K43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="L43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="M43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="N43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="O43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="P43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="R43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="S43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="T43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="U43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="V43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="W43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="X43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942433</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="C44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="D44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="E44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="F44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="G44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="H44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="I44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>4.016925283372814</v>
       </c>
       <c r="S44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="T44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="U44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="V44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="W44" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="X44" t="n">
-        <v>34.1416110442068</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="Y44" t="n">
-        <v>88.75187372942436</v>
+        <v>34.14161104420674</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="C46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="D46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="E46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="F46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="G46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="H46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="I46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="J46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="K46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="L46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="M46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="N46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="O46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="P46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="R46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="S46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="T46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="U46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="V46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="W46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="X46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
       <c r="Y46" t="n">
-        <v>88.75187372942436</v>
+        <v>88.75187372942432</v>
       </c>
     </row>
   </sheetData>
@@ -31367,10 +31367,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31385,7 +31385,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
         <v>0.4906339916673424</v>
@@ -31604,16 +31604,16 @@
         <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335884</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>42.77281535812677</v>
       </c>
       <c r="J12" t="n">
-        <v>117.3718746024725</v>
+        <v>107.4468298251558</v>
       </c>
       <c r="K12" t="n">
         <v>200.6072284127584</v>
@@ -31850,13 +31850,13 @@
         <v>314.775228438087</v>
       </c>
       <c r="N12" t="n">
-        <v>323.1063920919183</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>295.5792248066628</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>237.2283866321176</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31987,28 +31987,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.321886337655889</v>
+        <v>2.321886337655888</v>
       </c>
       <c r="H14" t="n">
-        <v>23.77901845551838</v>
+        <v>23.77901845551837</v>
       </c>
       <c r="I14" t="n">
-        <v>89.51452303247873</v>
+        <v>89.51452303247872</v>
       </c>
       <c r="J14" t="n">
-        <v>197.0672005506217</v>
+        <v>197.0672005506216</v>
       </c>
       <c r="K14" t="n">
-        <v>295.3526492235955</v>
+        <v>295.3526492235954</v>
       </c>
       <c r="L14" t="n">
-        <v>366.411078229632</v>
+        <v>366.4110782296319</v>
       </c>
       <c r="M14" t="n">
-        <v>407.7029243869199</v>
+        <v>407.7029243869198</v>
       </c>
       <c r="N14" t="n">
-        <v>414.2999839437847</v>
+        <v>414.2999839437846</v>
       </c>
       <c r="O14" t="n">
         <v>391.2117266737189</v>
@@ -32020,16 +32020,16 @@
         <v>250.7376032455375</v>
       </c>
       <c r="R14" t="n">
-        <v>145.8521926577769</v>
+        <v>145.8521926577768</v>
       </c>
       <c r="S14" t="n">
-        <v>52.90998491933362</v>
+        <v>52.90998491933361</v>
       </c>
       <c r="T14" t="n">
         <v>10.16405744308866</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1857509070124711</v>
+        <v>0.185750907012471</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>11.99818336542613</v>
       </c>
       <c r="I15" t="n">
-        <v>42.77281535812677</v>
+        <v>42.77281535812676</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,34 +32081,34 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>269.7411750705816</v>
+        <v>201.5208124367622</v>
       </c>
       <c r="M15" t="n">
-        <v>314.775228438087</v>
+        <v>314.7752284380869</v>
       </c>
       <c r="N15" t="n">
         <v>323.1063920919183</v>
       </c>
       <c r="O15" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>237.2283866321176</v>
+        <v>237.2283866321175</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.5808940360409</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.13273556810735</v>
+        <v>77.13273556810734</v>
       </c>
       <c r="S15" t="n">
-        <v>23.0755252282378</v>
+        <v>23.07552522823779</v>
       </c>
       <c r="T15" t="n">
-        <v>5.007416218359042</v>
+        <v>5.007416218359041</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08173149431489193</v>
+        <v>0.08173149431489192</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.04151827728048</v>
       </c>
       <c r="H16" t="n">
-        <v>9.260044319821004</v>
+        <v>9.260044319821002</v>
       </c>
       <c r="I16" t="n">
         <v>31.32129510221663</v>
       </c>
       <c r="J16" t="n">
-        <v>73.63534220372995</v>
+        <v>73.63534220372993</v>
       </c>
       <c r="K16" t="n">
         <v>121.0054871240412</v>
@@ -32175,19 +32175,19 @@
         <v>125.9669014630864</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.21295320027731</v>
+        <v>87.2129532002773</v>
       </c>
       <c r="R16" t="n">
-        <v>46.8304490857205</v>
+        <v>46.83044908572049</v>
       </c>
       <c r="S16" t="n">
         <v>18.15082306860618</v>
       </c>
       <c r="T16" t="n">
-        <v>4.450123548380233</v>
+        <v>4.450123548380232</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05681008785166263</v>
+        <v>0.05681008785166262</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,28 +32224,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.321886337655889</v>
+        <v>2.321886337655888</v>
       </c>
       <c r="H17" t="n">
-        <v>23.77901845551838</v>
+        <v>23.77901845551837</v>
       </c>
       <c r="I17" t="n">
-        <v>89.51452303247873</v>
+        <v>89.51452303247872</v>
       </c>
       <c r="J17" t="n">
-        <v>197.0672005506217</v>
+        <v>197.0672005506216</v>
       </c>
       <c r="K17" t="n">
-        <v>295.3526492235955</v>
+        <v>295.3526492235954</v>
       </c>
       <c r="L17" t="n">
-        <v>366.411078229632</v>
+        <v>366.4110782296319</v>
       </c>
       <c r="M17" t="n">
-        <v>407.7029243869199</v>
+        <v>407.7029243869198</v>
       </c>
       <c r="N17" t="n">
-        <v>414.2999839437847</v>
+        <v>414.2999839437846</v>
       </c>
       <c r="O17" t="n">
         <v>391.2117266737189</v>
@@ -32257,16 +32257,16 @@
         <v>250.7376032455375</v>
       </c>
       <c r="R17" t="n">
-        <v>145.8521926577769</v>
+        <v>145.8521926577768</v>
       </c>
       <c r="S17" t="n">
-        <v>52.90998491933362</v>
+        <v>52.90998491933361</v>
       </c>
       <c r="T17" t="n">
         <v>10.16405744308866</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1857509070124711</v>
+        <v>0.185750907012471</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>11.99818336542613</v>
       </c>
       <c r="I18" t="n">
-        <v>42.77281535812677</v>
+        <v>42.77281535812676</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>117.3718746024724</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>269.7411750705816</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>314.775228438087</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>323.1063920919183</v>
       </c>
       <c r="O18" t="n">
-        <v>295.5792248066628</v>
+        <v>241.0898635625934</v>
       </c>
       <c r="P18" t="n">
-        <v>237.2283866321176</v>
+        <v>237.2283866321175</v>
       </c>
       <c r="Q18" t="n">
         <v>158.5808940360409</v>
       </c>
       <c r="R18" t="n">
-        <v>77.13273556810735</v>
+        <v>77.13273556810734</v>
       </c>
       <c r="S18" t="n">
-        <v>23.0755252282378</v>
+        <v>23.07552522823779</v>
       </c>
       <c r="T18" t="n">
-        <v>5.007416218359042</v>
+        <v>5.007416218359041</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08173149431489193</v>
+        <v>0.08173149431489192</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.04151827728048</v>
       </c>
       <c r="H19" t="n">
-        <v>9.260044319821004</v>
+        <v>9.260044319821002</v>
       </c>
       <c r="I19" t="n">
         <v>31.32129510221663</v>
       </c>
       <c r="J19" t="n">
-        <v>73.63534220372995</v>
+        <v>73.63534220372993</v>
       </c>
       <c r="K19" t="n">
         <v>121.0054871240412</v>
@@ -32412,19 +32412,19 @@
         <v>125.9669014630864</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.21295320027731</v>
+        <v>87.2129532002773</v>
       </c>
       <c r="R19" t="n">
-        <v>46.8304490857205</v>
+        <v>46.83044908572049</v>
       </c>
       <c r="S19" t="n">
         <v>18.15082306860618</v>
       </c>
       <c r="T19" t="n">
-        <v>4.450123548380233</v>
+        <v>4.450123548380232</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05681008785166263</v>
+        <v>0.05681008785166262</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,19 +32552,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>200.6072284127584</v>
+        <v>87.97397176822616</v>
       </c>
       <c r="L21" t="n">
         <v>269.7411750705816</v>
       </c>
       <c r="M21" t="n">
-        <v>71.12989289235873</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>323.1063920919183</v>
       </c>
       <c r="O21" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>237.2283866321176</v>
@@ -32795,13 +32795,13 @@
         <v>269.7411750705816</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>252.4287462072126</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>237.2283866321176</v>
@@ -32935,28 +32935,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.321886337655889</v>
+        <v>2.321886337655888</v>
       </c>
       <c r="H26" t="n">
-        <v>23.77901845551838</v>
+        <v>23.77901845551837</v>
       </c>
       <c r="I26" t="n">
-        <v>89.51452303247873</v>
+        <v>89.51452303247872</v>
       </c>
       <c r="J26" t="n">
-        <v>197.0672005506217</v>
+        <v>197.0672005506216</v>
       </c>
       <c r="K26" t="n">
-        <v>295.3526492235955</v>
+        <v>295.3526492235954</v>
       </c>
       <c r="L26" t="n">
-        <v>366.411078229632</v>
+        <v>366.4110782296319</v>
       </c>
       <c r="M26" t="n">
-        <v>407.7029243869199</v>
+        <v>407.7029243869198</v>
       </c>
       <c r="N26" t="n">
-        <v>414.2999839437847</v>
+        <v>414.2999839437846</v>
       </c>
       <c r="O26" t="n">
         <v>391.2117266737189</v>
@@ -32968,16 +32968,16 @@
         <v>250.7376032455375</v>
       </c>
       <c r="R26" t="n">
-        <v>145.8521926577769</v>
+        <v>145.8521926577768</v>
       </c>
       <c r="S26" t="n">
-        <v>52.90998491933362</v>
+        <v>52.90998491933361</v>
       </c>
       <c r="T26" t="n">
         <v>10.16405744308866</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1857509070124711</v>
+        <v>0.185750907012471</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>11.99818336542613</v>
       </c>
       <c r="I27" t="n">
-        <v>42.77281535812677</v>
+        <v>42.77281535812676</v>
       </c>
       <c r="J27" t="n">
-        <v>117.3718746024725</v>
+        <v>117.3718746024724</v>
       </c>
       <c r="K27" t="n">
-        <v>200.6072284127584</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>269.7411750705816</v>
       </c>
       <c r="M27" t="n">
-        <v>314.775228438087</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>323.1063920919183</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>295.5792248066627</v>
       </c>
       <c r="P27" t="n">
-        <v>174.8819044012434</v>
+        <v>237.2283866321175</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.13273556810735</v>
+        <v>77.13273556810734</v>
       </c>
       <c r="S27" t="n">
-        <v>23.0755252282378</v>
+        <v>23.07552522823779</v>
       </c>
       <c r="T27" t="n">
-        <v>5.007416218359042</v>
+        <v>5.007416218359041</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08173149431489193</v>
+        <v>0.08173149431489192</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.04151827728048</v>
       </c>
       <c r="H28" t="n">
-        <v>9.260044319821004</v>
+        <v>9.260044319821002</v>
       </c>
       <c r="I28" t="n">
         <v>31.32129510221663</v>
       </c>
       <c r="J28" t="n">
-        <v>73.63534220372995</v>
+        <v>73.63534220372993</v>
       </c>
       <c r="K28" t="n">
         <v>121.0054871240412</v>
@@ -33123,19 +33123,19 @@
         <v>125.9669014630864</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.21295320027731</v>
+        <v>87.2129532002773</v>
       </c>
       <c r="R28" t="n">
-        <v>46.8304490857205</v>
+        <v>46.83044908572049</v>
       </c>
       <c r="S28" t="n">
         <v>18.15082306860618</v>
       </c>
       <c r="T28" t="n">
-        <v>4.450123548380233</v>
+        <v>4.450123548380232</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05681008785166263</v>
+        <v>0.05681008785166262</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,22 +33263,22 @@
         <v>117.3718746024725</v>
       </c>
       <c r="K30" t="n">
-        <v>200.6072284127584</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>269.7411750705816</v>
+        <v>112.422696445803</v>
       </c>
       <c r="M30" t="n">
-        <v>55.45987716635636</v>
+        <v>314.775228438087</v>
       </c>
       <c r="N30" t="n">
-        <v>323.1063920919183</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>295.5792248066628</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>237.2283866321176</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>117.3718746024725</v>
       </c>
       <c r="K33" t="n">
-        <v>200.6072284127584</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>269.7411750705816</v>
       </c>
       <c r="M33" t="n">
-        <v>314.775228438087</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>323.1063920919183</v>
       </c>
       <c r="O33" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>208.5770751241292</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>158.5808940360409</v>
       </c>
       <c r="R33" t="n">
         <v>77.13273556810735</v>
@@ -33737,25 +33737,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>200.6072284127584</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>314.775228438087</v>
+        <v>157.1079184260493</v>
       </c>
       <c r="N36" t="n">
         <v>323.1063920919183</v>
       </c>
       <c r="O36" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>237.2283866321176</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.5808940360409</v>
       </c>
       <c r="R36" t="n">
         <v>77.13273556810735</v>
@@ -33889,37 +33889,37 @@
         <v>23.77901845551838</v>
       </c>
       <c r="I38" t="n">
-        <v>89.51452303247873</v>
+        <v>89.51452303247876</v>
       </c>
       <c r="J38" t="n">
         <v>197.0672005506217</v>
       </c>
       <c r="K38" t="n">
-        <v>295.3526492235955</v>
+        <v>295.3526492235956</v>
       </c>
       <c r="L38" t="n">
         <v>366.411078229632</v>
       </c>
       <c r="M38" t="n">
-        <v>407.7029243869199</v>
+        <v>407.70292438692</v>
       </c>
       <c r="N38" t="n">
-        <v>414.2999839437847</v>
+        <v>414.2999839437848</v>
       </c>
       <c r="O38" t="n">
-        <v>391.2117266737189</v>
+        <v>391.2117266737184</v>
       </c>
       <c r="P38" t="n">
-        <v>333.8901577128391</v>
+        <v>333.8901577128392</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7376032455375</v>
+        <v>250.7376032455376</v>
       </c>
       <c r="R38" t="n">
         <v>145.8521926577769</v>
       </c>
       <c r="S38" t="n">
-        <v>52.90998491933362</v>
+        <v>52.90998491933363</v>
       </c>
       <c r="T38" t="n">
         <v>10.16405744308866</v>
@@ -33965,10 +33965,10 @@
         <v>1.242318713586357</v>
       </c>
       <c r="H39" t="n">
-        <v>11.99818336542613</v>
+        <v>11.99818336542614</v>
       </c>
       <c r="I39" t="n">
-        <v>42.77281535812677</v>
+        <v>42.77281535812678</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33977,34 +33977,34 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>269.7411750705817</v>
       </c>
       <c r="M39" t="n">
         <v>314.775228438087</v>
       </c>
       <c r="N39" t="n">
-        <v>323.1063920919183</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>295.5792248066628</v>
       </c>
       <c r="P39" t="n">
-        <v>237.2283866321176</v>
+        <v>237.2283866321177</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.5808940360409</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.13273556810735</v>
+        <v>77.13273556810736</v>
       </c>
       <c r="S39" t="n">
         <v>23.0755252282378</v>
       </c>
       <c r="T39" t="n">
-        <v>5.007416218359042</v>
+        <v>5.007416218359043</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08173149431489193</v>
+        <v>0.08173149431489195</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.04151827728048</v>
+        <v>1.041518277280481</v>
       </c>
       <c r="H40" t="n">
-        <v>9.260044319821004</v>
+        <v>9.260044319821006</v>
       </c>
       <c r="I40" t="n">
-        <v>31.32129510221663</v>
+        <v>31.32129510221664</v>
       </c>
       <c r="J40" t="n">
-        <v>73.63534220372995</v>
+        <v>73.63534220372996</v>
       </c>
       <c r="K40" t="n">
-        <v>121.0054871240412</v>
+        <v>121.0054871240413</v>
       </c>
       <c r="L40" t="n">
         <v>154.8453627876816</v>
@@ -34062,28 +34062,28 @@
         <v>163.2627241377029</v>
       </c>
       <c r="N40" t="n">
-        <v>159.3807014678394</v>
+        <v>159.3807014678395</v>
       </c>
       <c r="O40" t="n">
-        <v>147.2138743196083</v>
+        <v>147.2138743196084</v>
       </c>
       <c r="P40" t="n">
         <v>125.9669014630864</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.21295320027731</v>
+        <v>87.21295320027734</v>
       </c>
       <c r="R40" t="n">
         <v>46.8304490857205</v>
       </c>
       <c r="S40" t="n">
-        <v>18.15082306860618</v>
+        <v>18.15082306860619</v>
       </c>
       <c r="T40" t="n">
-        <v>4.450123548380233</v>
+        <v>4.450123548380234</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05681008785166263</v>
+        <v>0.05681008785166264</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>42.77281535812677</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>107.8348352315932</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>200.6072284127584</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,13 +34220,13 @@
         <v>314.775228438087</v>
       </c>
       <c r="N42" t="n">
-        <v>323.1063920919183</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>295.5792248066628</v>
       </c>
       <c r="P42" t="n">
-        <v>111.212878264395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>158.5808940360409</v>
@@ -34366,7 +34366,7 @@
         <v>89.51452303247873</v>
       </c>
       <c r="J44" t="n">
-        <v>197.0672005506216</v>
+        <v>197.0672005506217</v>
       </c>
       <c r="K44" t="n">
         <v>295.3526492235955</v>
@@ -34451,7 +34451,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>269.7411750705816</v>
+        <v>163.5430217566234</v>
       </c>
       <c r="M45" t="n">
         <v>314.775228438087</v>
@@ -34460,13 +34460,13 @@
         <v>323.1063920919183</v>
       </c>
       <c r="O45" t="n">
-        <v>295.5792248066628</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.5808940360409</v>
       </c>
       <c r="R45" t="n">
         <v>77.13273556810735</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>117.3425372005507</v>
+        <v>49.23014701322817</v>
       </c>
       <c r="N6" t="n">
         <v>244.5627323611424</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>86.79947839438772</v>
       </c>
       <c r="M9" t="n">
         <v>276.1565137023555</v>
@@ -35264,10 +35264,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="O9" t="n">
-        <v>37.92942814463511</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>116.6252832762146</v>
+        <v>106.7002384988979</v>
       </c>
       <c r="K12" t="n">
         <v>327.231026450978</v>
       </c>
       <c r="L12" t="n">
-        <v>131.1867952907074</v>
+        <v>502.0271405941666</v>
       </c>
       <c r="M12" t="n">
         <v>638.3462582660686</v>
       </c>
       <c r="N12" t="n">
-        <v>671.1070543521386</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>546.8452996389478</v>
       </c>
       <c r="P12" t="n">
-        <v>181.6205076815559</v>
+        <v>421.7167478577245</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.204302946844589</v>
+        <v>1.204302946844521</v>
       </c>
       <c r="K13" t="n">
-        <v>119.6641361579458</v>
+        <v>119.6641361579457</v>
       </c>
       <c r="L13" t="n">
-        <v>203.3635289077852</v>
+        <v>203.3635289077851</v>
       </c>
       <c r="M13" t="n">
         <v>223.7747419593309</v>
@@ -35583,10 +35583,10 @@
         <v>192.7271430934354</v>
       </c>
       <c r="P13" t="n">
-        <v>144.1736015877673</v>
+        <v>144.1736015877672</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.97905080837034</v>
+        <v>21.97905080837027</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>185.1179111960091</v>
       </c>
       <c r="K14" t="n">
-        <v>399.4082107497797</v>
+        <v>399.4082107497796</v>
       </c>
       <c r="L14" t="n">
         <v>548.3058778100951</v>
       </c>
       <c r="M14" t="n">
-        <v>626.8702246524797</v>
+        <v>626.8702246524796</v>
       </c>
       <c r="N14" t="n">
-        <v>622.2338447591779</v>
+        <v>622.2338447591778</v>
       </c>
       <c r="O14" t="n">
-        <v>541.9136965147776</v>
+        <v>541.9136965147775</v>
       </c>
       <c r="P14" t="n">
         <v>424.4558701290522</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>502.0271405941666</v>
+        <v>433.8067779603472</v>
       </c>
       <c r="M15" t="n">
-        <v>326.0430645253944</v>
+        <v>638.3462582660685</v>
       </c>
       <c r="N15" t="n">
-        <v>671.1070543521386</v>
+        <v>671.1070543521384</v>
       </c>
       <c r="O15" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>421.7167478577245</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.59911995001943</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.204302946844589</v>
+        <v>1.204302946844649</v>
       </c>
       <c r="K16" t="n">
         <v>119.6641361579458</v>
@@ -35814,16 +35814,16 @@
         <v>223.7747419593309</v>
       </c>
       <c r="N16" t="n">
-        <v>224.4410147068554</v>
+        <v>224.4410147068555</v>
       </c>
       <c r="O16" t="n">
-        <v>192.7271430934354</v>
+        <v>192.7271430934355</v>
       </c>
       <c r="P16" t="n">
-        <v>144.1736015877673</v>
+        <v>144.1736015877674</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.97905080837034</v>
+        <v>21.9790508083704</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>185.1179111960091</v>
       </c>
       <c r="K17" t="n">
-        <v>399.4082107497797</v>
+        <v>399.4082107497796</v>
       </c>
       <c r="L17" t="n">
         <v>548.3058778100951</v>
       </c>
       <c r="M17" t="n">
-        <v>626.8702246524797</v>
+        <v>626.8702246524796</v>
       </c>
       <c r="N17" t="n">
-        <v>622.2338447591779</v>
+        <v>622.2338447591778</v>
       </c>
       <c r="O17" t="n">
-        <v>541.9136965147776</v>
+        <v>541.9136965147775</v>
       </c>
       <c r="P17" t="n">
         <v>424.4558701290522</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>116.6252832762146</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>302.7530512095615</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>638.3462582660686</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>671.1070543521384</v>
       </c>
       <c r="O18" t="n">
-        <v>546.8452996389478</v>
+        <v>492.3559383948785</v>
       </c>
       <c r="P18" t="n">
         <v>421.7167478577245</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.38735163746696</v>
+        <v>65.38735163746698</v>
       </c>
       <c r="K19" t="n">
         <v>183.8471848485682</v>
@@ -36060,7 +36060,7 @@
         <v>208.3566502783897</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16209949899272</v>
+        <v>86.16209949899273</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>327.231026450978</v>
+        <v>214.5977698064458</v>
       </c>
       <c r="L21" t="n">
         <v>502.0271405941666</v>
       </c>
       <c r="M21" t="n">
-        <v>394.7009227203403</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>191.764680008585</v>
+        <v>671.1070543521386</v>
       </c>
       <c r="O21" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>421.7167478577245</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.38735163746696</v>
+        <v>65.38735163746699</v>
       </c>
       <c r="K22" t="n">
         <v>183.8471848485682</v>
@@ -36297,7 +36297,7 @@
         <v>208.3566502783897</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16209949899272</v>
+        <v>86.16209949899275</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>502.0271405941666</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>575.9997760351941</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>421.7167478577245</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.9450350503773</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.38735163746696</v>
+        <v>65.38735163746702</v>
       </c>
       <c r="K25" t="n">
         <v>183.8471848485682</v>
@@ -36522,10 +36522,10 @@
         <v>267.5465775984076</v>
       </c>
       <c r="M25" t="n">
-        <v>287.9577906499533</v>
+        <v>287.9577906499534</v>
       </c>
       <c r="N25" t="n">
-        <v>288.6240633974778</v>
+        <v>288.6240633974779</v>
       </c>
       <c r="O25" t="n">
         <v>256.9101917840578</v>
@@ -36534,7 +36534,7 @@
         <v>208.3566502783897</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16209949899272</v>
+        <v>86.16209949899277</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>185.1179111960091</v>
       </c>
       <c r="K26" t="n">
-        <v>399.4082107497797</v>
+        <v>399.4082107497796</v>
       </c>
       <c r="L26" t="n">
         <v>548.3058778100951</v>
       </c>
       <c r="M26" t="n">
-        <v>626.8702246524797</v>
+        <v>626.8702246524796</v>
       </c>
       <c r="N26" t="n">
-        <v>622.2338447591779</v>
+        <v>622.2338447591778</v>
       </c>
       <c r="O26" t="n">
-        <v>541.9136965147776</v>
+        <v>541.9136965147775</v>
       </c>
       <c r="P26" t="n">
         <v>424.4558701290522</v>
@@ -36674,25 +36674,25 @@
         <v>116.6252832762146</v>
       </c>
       <c r="K27" t="n">
-        <v>327.231026450978</v>
+        <v>31.0696694094374</v>
       </c>
       <c r="L27" t="n">
         <v>502.0271405941666</v>
       </c>
       <c r="M27" t="n">
-        <v>638.3462582660686</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>671.1070543521384</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>546.8452996389478</v>
       </c>
       <c r="P27" t="n">
-        <v>359.3702656268504</v>
+        <v>421.7167478577245</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.38735163746696</v>
+        <v>65.38735163746703</v>
       </c>
       <c r="K28" t="n">
         <v>183.8471848485682</v>
@@ -36762,7 +36762,7 @@
         <v>287.9577906499533</v>
       </c>
       <c r="N28" t="n">
-        <v>288.6240633974778</v>
+        <v>288.6240633974779</v>
       </c>
       <c r="O28" t="n">
         <v>256.9101917840578</v>
@@ -36771,7 +36771,7 @@
         <v>208.3566502783897</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16209949899272</v>
+        <v>86.16209949899279</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>116.6252832762146</v>
       </c>
       <c r="K30" t="n">
-        <v>327.231026450978</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>502.0271405941666</v>
+        <v>344.7086619693879</v>
       </c>
       <c r="M30" t="n">
-        <v>379.030906994338</v>
+        <v>638.3462582660686</v>
       </c>
       <c r="N30" t="n">
-        <v>671.1070543521386</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>546.8452996389478</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>421.7167478577245</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,25 +37148,25 @@
         <v>116.6252832762146</v>
       </c>
       <c r="K33" t="n">
-        <v>327.231026450978</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>502.0271405941666</v>
       </c>
       <c r="M33" t="n">
-        <v>638.3462582660686</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>671.1070543521386</v>
       </c>
       <c r="O33" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>10.42582379885043</v>
+        <v>393.0654363497361</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>228.6764076858685</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.02803581648151</v>
+        <v>69.02803581648153</v>
       </c>
       <c r="K34" t="n">
         <v>187.4878690275827</v>
@@ -37233,19 +37233,19 @@
         <v>271.1872617774221</v>
       </c>
       <c r="M34" t="n">
-        <v>291.5984748289678</v>
+        <v>291.5984748289679</v>
       </c>
       <c r="N34" t="n">
         <v>292.2647475764924</v>
       </c>
       <c r="O34" t="n">
-        <v>260.5508759630723</v>
+        <v>260.5508759630724</v>
       </c>
       <c r="P34" t="n">
         <v>211.9973344574042</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.80278367800726</v>
+        <v>89.80278367800729</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>32.56538566831892</v>
+        <v>327.231026450978</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>638.3462582660686</v>
+        <v>480.6789482540309</v>
       </c>
       <c r="N36" t="n">
         <v>671.1070543521386</v>
       </c>
       <c r="O36" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>421.7167478577245</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>228.6764076858685</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.02803581648146</v>
+        <v>69.02803581648153</v>
       </c>
       <c r="K37" t="n">
         <v>187.4878690275827</v>
       </c>
       <c r="L37" t="n">
-        <v>271.187261777422</v>
+        <v>271.1872617774221</v>
       </c>
       <c r="M37" t="n">
-        <v>291.5984748289678</v>
+        <v>291.5984748289679</v>
       </c>
       <c r="N37" t="n">
-        <v>292.2647475764923</v>
+        <v>292.2647475764924</v>
       </c>
       <c r="O37" t="n">
-        <v>260.5508759630723</v>
+        <v>260.5508759630724</v>
       </c>
       <c r="P37" t="n">
         <v>211.9973344574042</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.80278367800722</v>
+        <v>89.80278367800729</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>185.1179111960091</v>
+        <v>185.1179111960092</v>
       </c>
       <c r="K38" t="n">
-        <v>399.4082107497797</v>
+        <v>399.4082107497798</v>
       </c>
       <c r="L38" t="n">
-        <v>548.3058778100951</v>
+        <v>548.3058778100952</v>
       </c>
       <c r="M38" t="n">
         <v>626.8702246524797</v>
       </c>
       <c r="N38" t="n">
-        <v>622.2338447591779</v>
+        <v>622.2338447591781</v>
       </c>
       <c r="O38" t="n">
-        <v>541.9136965147776</v>
+        <v>541.913696514777</v>
       </c>
       <c r="P38" t="n">
-        <v>424.4558701290522</v>
+        <v>424.4558701290523</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.7469040309927</v>
+        <v>240.7469040309928</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>106.2704571558628</v>
+        <v>502.0271405941667</v>
       </c>
       <c r="M39" t="n">
         <v>638.3462582660686</v>
       </c>
       <c r="N39" t="n">
-        <v>671.1070543521386</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>546.8452996389478</v>
       </c>
       <c r="P39" t="n">
-        <v>421.7167478577245</v>
+        <v>421.7167478577246</v>
       </c>
       <c r="Q39" t="n">
-        <v>228.6764076858685</v>
+        <v>29.40231830126377</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.02803581648153</v>
+        <v>69.02803581648149</v>
       </c>
       <c r="K40" t="n">
         <v>187.4878690275827</v>
@@ -37707,19 +37707,19 @@
         <v>271.1872617774221</v>
       </c>
       <c r="M40" t="n">
-        <v>291.5984748289679</v>
+        <v>291.5984748289678</v>
       </c>
       <c r="N40" t="n">
         <v>292.2647475764924</v>
       </c>
       <c r="O40" t="n">
-        <v>260.5508759630724</v>
+        <v>260.5508759630723</v>
       </c>
       <c r="P40" t="n">
         <v>211.9973344574042</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.80278367800729</v>
+        <v>89.80278367800726</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>107.0882439053353</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>327.231026450978</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,13 +37868,13 @@
         <v>638.3462582660686</v>
       </c>
       <c r="N42" t="n">
-        <v>671.1070543521386</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>546.8452996389478</v>
       </c>
       <c r="P42" t="n">
-        <v>295.7012394900019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>228.6764076858685</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.02803581648153</v>
+        <v>69.02803581648151</v>
       </c>
       <c r="K43" t="n">
         <v>187.4878690275827</v>
@@ -37944,19 +37944,19 @@
         <v>271.1872617774221</v>
       </c>
       <c r="M43" t="n">
-        <v>291.5984748289679</v>
+        <v>291.5984748289678</v>
       </c>
       <c r="N43" t="n">
         <v>292.2647475764924</v>
       </c>
       <c r="O43" t="n">
-        <v>260.5508759630724</v>
+        <v>260.5508759630723</v>
       </c>
       <c r="P43" t="n">
         <v>211.9973344574042</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.80278367800729</v>
+        <v>89.80278367800726</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>502.0271405941666</v>
+        <v>395.8289872802084</v>
       </c>
       <c r="M45" t="n">
         <v>638.3462582660686</v>
@@ -38108,13 +38108,13 @@
         <v>671.1070543521386</v>
       </c>
       <c r="O45" t="n">
-        <v>546.8452996389478</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.38739079085484</v>
+        <v>228.6764076858685</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.02803581648153</v>
+        <v>69.02803581648149</v>
       </c>
       <c r="K46" t="n">
         <v>187.4878690275827</v>
@@ -38181,19 +38181,19 @@
         <v>271.1872617774221</v>
       </c>
       <c r="M46" t="n">
-        <v>291.5984748289679</v>
+        <v>291.5984748289678</v>
       </c>
       <c r="N46" t="n">
         <v>292.2647475764924</v>
       </c>
       <c r="O46" t="n">
-        <v>260.5508759630724</v>
+        <v>260.5508759630723</v>
       </c>
       <c r="P46" t="n">
         <v>211.9973344574042</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.80278367800729</v>
+        <v>89.80278367800724</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
